--- a/data/tkdetay.xlsx
+++ b/data/tkdetay.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProje\web_app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProje\web_app\bilardo-otomsayon\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D2F0D5-ADCA-44A3-9945-A2D67543E1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB06D05F-201B-4456-BE1F-C11EA55CDB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="tkdetay_vt" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tkdetay_vt!$A$1:$K$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tkdetay_vt!$A$1:$K$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="77">
   <si>
     <t>Sporcu</t>
   </si>
@@ -147,9 +147,6 @@
     <t>METİN ATALAY SADIÇ</t>
   </si>
   <si>
-    <t>MEHMET BARLAS</t>
-  </si>
-  <si>
     <t>NEDİM ARSAL</t>
   </si>
   <si>
@@ -244,6 +241,33 @@
   </si>
   <si>
     <t>KUBİLAY ŞAHİN</t>
+  </si>
+  <si>
+    <t>2025 C KATEGORİSİ 3.ETAP</t>
+  </si>
+  <si>
+    <t>HİKMET PEKKÜÇÜK</t>
+  </si>
+  <si>
+    <t>HÜSEYİN GAZİ APAYDIN</t>
+  </si>
+  <si>
+    <t>MEHMET ÇIRAK</t>
+  </si>
+  <si>
+    <t>MEHMET ENGİN EKER</t>
+  </si>
+  <si>
+    <t>NACİ COŞAR</t>
+  </si>
+  <si>
+    <t>RAFET ÖZÇELİK</t>
+  </si>
+  <si>
+    <t>SİNAN MERT</t>
+  </si>
+  <si>
+    <t>TAHİR YOLAL</t>
   </si>
 </sst>
 </file>
@@ -600,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
@@ -654,34 +678,34 @@
         <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C2" s="5">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="D2" s="5">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="E2" s="5">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="F2" s="6">
-        <v>0.64670000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="G2" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H2" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I2" s="6">
-        <v>0.85709999999999997</v>
+        <v>0.6</v>
       </c>
       <c r="J2" s="5">
-        <v>155</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>60</v>
+        <v>212</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -689,474 +713,474 @@
         <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="D3" s="5">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="E3" s="5">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="F3" s="6">
-        <v>0.61070000000000002</v>
+        <v>0.64670000000000005</v>
       </c>
       <c r="G3" s="5">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5">
         <v>5</v>
       </c>
-      <c r="H3" s="5">
-        <v>4</v>
-      </c>
       <c r="I3" s="6">
-        <v>0.71430000000000005</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="J3" s="5">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D4" s="5">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E4" s="5">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="F4" s="6">
-        <v>0.37780000000000002</v>
+        <v>0.61070000000000002</v>
       </c>
       <c r="G4" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="6">
-        <v>0.37780000000000002</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="J4" s="5">
-        <v>632</v>
+        <v>212</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C5" s="5">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D5" s="5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F5" s="6">
-        <v>0.69699999999999995</v>
+        <v>0.48570000000000002</v>
       </c>
       <c r="G5" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="6">
-        <v>0</v>
+        <v>0.48570000000000002</v>
       </c>
       <c r="J5" s="5">
-        <v>632</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>60</v>
+        <v>650</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D6" s="5">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F6" s="6">
-        <v>1.0185</v>
+        <v>0.37780000000000002</v>
       </c>
       <c r="G6" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="6">
-        <v>1.0369999999999999</v>
+        <v>0.37780000000000002</v>
       </c>
       <c r="J6" s="5">
-        <v>143</v>
+        <v>650</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D7" s="5">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="E7" s="5">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="F7" s="6">
-        <v>0.78320000000000001</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="G7" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="6">
-        <v>1.0345</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5">
-        <v>143</v>
+        <v>650</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D8" s="5">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c r="E8" s="5">
-        <v>200</v>
-      </c>
-      <c r="F8" s="7">
-        <v>1.2150000000000001</v>
+        <v>54</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.0185</v>
       </c>
       <c r="G8" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H8" s="5">
-        <v>9</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1.6667000000000001</v>
+        <v>4</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1.0369999999999999</v>
       </c>
       <c r="J8" s="5">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C9" s="5">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="D9" s="5">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="E9" s="5">
-        <v>185</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1.173</v>
+        <v>143</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.78320000000000001</v>
       </c>
       <c r="G9" s="5">
         <v>10</v>
       </c>
       <c r="H9" s="5">
-        <v>6</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1.4286000000000001</v>
+        <v>4</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1.0345</v>
       </c>
       <c r="J9" s="5">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D10" s="5">
-        <v>51</v>
+        <v>243</v>
       </c>
       <c r="E10" s="5">
-        <v>90</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.56669999999999998</v>
+        <v>200</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1.2150000000000001</v>
       </c>
       <c r="G10" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H10" s="5">
-        <v>4</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0.6</v>
+        <v>9</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1.6667000000000001</v>
       </c>
       <c r="J10" s="5">
-        <v>1011</v>
+        <v>15</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C11" s="5">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="E11" s="5">
-        <v>132</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.81820000000000004</v>
+        <v>185</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1.173</v>
       </c>
       <c r="G11" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" s="5">
         <v>6</v>
       </c>
-      <c r="I11" s="6">
-        <v>1.125</v>
+      <c r="I11" s="7">
+        <v>1.4286000000000001</v>
       </c>
       <c r="J11" s="5">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C12" s="5">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="5">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="E12" s="5">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="F12" s="6">
-        <v>0.6744</v>
+        <v>0.64880000000000004</v>
       </c>
       <c r="G12" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H12" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12" s="6">
-        <v>0.6744</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="J12" s="5">
-        <v>87</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>60</v>
+        <v>797</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D13" s="5">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E13" s="5">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="F13" s="6">
-        <v>0.64290000000000003</v>
+        <v>0.56669999999999998</v>
       </c>
       <c r="G13" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" s="6">
-        <v>0.68179999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="J13" s="5">
-        <v>398</v>
+        <v>797</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C14" s="5">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="D14" s="5">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E14" s="5">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="F14" s="6">
-        <v>0.63239999999999996</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="G14" s="5">
+        <v>6</v>
+      </c>
+      <c r="H14" s="5">
         <v>5</v>
       </c>
-      <c r="H14" s="5">
-        <v>4</v>
-      </c>
       <c r="I14" s="6">
-        <v>0.80769999999999997</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="J14" s="5">
-        <v>398</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>60</v>
+        <v>92</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="5">
-        <v>73</v>
+        <v>270</v>
       </c>
       <c r="D15" s="5">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="E15" s="5">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F15" s="6">
-        <v>0.62929999999999997</v>
+        <v>0.81820000000000004</v>
       </c>
       <c r="G15" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H15" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I15" s="6">
-        <v>0.68179999999999996</v>
+        <v>1.125</v>
       </c>
       <c r="J15" s="5">
-        <v>404</v>
+        <v>92</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D16" s="5">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E16" s="5">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="F16" s="6">
-        <v>0.57689999999999997</v>
+        <v>0.6744</v>
       </c>
       <c r="G16" s="5">
         <v>4</v>
@@ -1165,255 +1189,255 @@
         <v>3</v>
       </c>
       <c r="I16" s="6">
-        <v>0.6</v>
+        <v>0.6744</v>
       </c>
       <c r="J16" s="5">
-        <v>404</v>
+        <v>92</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C17" s="5">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D17" s="5">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E17" s="5">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="F17" s="6">
-        <v>0.36359999999999998</v>
+        <v>0.5181</v>
       </c>
       <c r="G17" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="6">
-        <v>0.36359999999999998</v>
+        <v>0.62219999999999998</v>
       </c>
       <c r="J17" s="5">
-        <v>305</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>61</v>
+        <v>419</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C18" s="5">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D18" s="5">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E18" s="5">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="F18" s="6">
-        <v>0</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="G18" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I18" s="6">
-        <v>0</v>
+        <v>0.68179999999999996</v>
       </c>
       <c r="J18" s="5">
-        <v>305</v>
+        <v>419</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D19" s="5">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E19" s="5">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="F19" s="6">
-        <v>0.28889999999999999</v>
+        <v>0.63239999999999996</v>
       </c>
       <c r="G19" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H19" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19" s="6">
-        <v>0.28889999999999999</v>
+        <v>0.80769999999999997</v>
       </c>
       <c r="J19" s="5">
-        <v>746</v>
+        <v>419</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C20" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D20" s="5">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5">
+        <v>45</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="G20" s="5">
         <v>2</v>
       </c>
-      <c r="E20" s="5">
-        <v>26</v>
-      </c>
-      <c r="F20" s="6">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="G20" s="5">
-        <v>1</v>
-      </c>
       <c r="H20" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="6">
-        <v>7.6899999999999996E-2</v>
+        <v>0.42220000000000002</v>
       </c>
       <c r="J20" s="5">
-        <v>746</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>60</v>
+        <v>471</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="5">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D21" s="5">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="E21" s="5">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="F21" s="6">
-        <v>0.63639999999999997</v>
+        <v>0.62929999999999997</v>
       </c>
       <c r="G21" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I21" s="6">
-        <v>0.63639999999999997</v>
+        <v>0.68179999999999996</v>
       </c>
       <c r="J21" s="5">
-        <v>641</v>
+        <v>471</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="5">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D22" s="5">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E22" s="5">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="F22" s="6">
-        <v>0.57140000000000002</v>
+        <v>0.57689999999999997</v>
       </c>
       <c r="G22" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" s="6">
-        <v>0.57140000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="J22" s="5">
-        <v>641</v>
+        <v>471</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C23" s="5">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D23" s="5">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="E23" s="5">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="F23" s="6">
-        <v>0.58789999999999998</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="G23" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H23" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I23" s="6">
-        <v>0.69769999999999999</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="J23" s="5">
-        <v>778</v>
+        <v>305</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>60</v>
@@ -1421,267 +1445,267 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" s="5">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="D24" s="5">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="E24" s="5">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="F24" s="6">
-        <v>1.0182</v>
+        <v>0</v>
       </c>
       <c r="G24" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H24" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I24" s="6">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5">
-        <v>27</v>
+        <v>305</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5">
+        <v>40</v>
+      </c>
+      <c r="D25" s="5">
         <v>13</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="5">
-        <v>76</v>
-      </c>
-      <c r="D25" s="5">
-        <v>97</v>
-      </c>
       <c r="E25" s="5">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="F25" s="6">
-        <v>0.70289999999999997</v>
+        <v>0.28889999999999999</v>
       </c>
       <c r="G25" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I25" s="6">
-        <v>0.91300000000000003</v>
+        <v>0.28889999999999999</v>
       </c>
       <c r="J25" s="5">
-        <v>27</v>
+        <v>1082</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="5">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="D26" s="5">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="E26" s="5">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="F26" s="6">
-        <v>0.5897</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="G26" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H26" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26" s="6">
-        <v>0.69699999999999995</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="J26" s="5">
-        <v>192</v>
+        <v>1082</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C27" s="5">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D27" s="5">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="E27" s="5">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="F27" s="6">
-        <v>0.76719999999999999</v>
+        <v>0.41460000000000002</v>
       </c>
       <c r="G27" s="5">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H27" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I27" s="6">
-        <v>1.5</v>
+        <v>0.41460000000000002</v>
       </c>
       <c r="J27" s="5">
-        <v>192</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>60</v>
+        <v>683</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C28" s="5">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D28" s="5">
         <v>28</v>
       </c>
       <c r="E28" s="5">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F28" s="6">
-        <v>0.7</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="G28" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H28" s="5">
         <v>3</v>
       </c>
       <c r="I28" s="6">
-        <v>0.7</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="J28" s="5">
-        <v>300</v>
+        <v>683</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C29" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D29" s="5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E29" s="5">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F29" s="6">
-        <v>0</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="G29" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="6">
-        <v>0</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="J29" s="5">
-        <v>300</v>
+        <v>683</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C30" s="5">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D30" s="5">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E30" s="5">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F30" s="6">
-        <v>0.51849999999999996</v>
+        <v>0.56469999999999998</v>
       </c>
       <c r="G30" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H30" s="5">
         <v>3</v>
       </c>
       <c r="I30" s="6">
-        <v>0.55559999999999998</v>
+        <v>0.57779999999999998</v>
       </c>
       <c r="J30" s="5">
-        <v>1146</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>60</v>
+        <v>765</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="5">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="D31" s="5">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="E31" s="5">
-        <v>242</v>
+        <v>165</v>
       </c>
       <c r="F31" s="6">
-        <v>0.77690000000000003</v>
+        <v>0.58789999999999998</v>
       </c>
       <c r="G31" s="5">
         <v>7</v>
@@ -1690,45 +1714,45 @@
         <v>5</v>
       </c>
       <c r="I31" s="6">
-        <v>0.83330000000000004</v>
+        <v>0.69769999999999999</v>
       </c>
       <c r="J31" s="5">
-        <v>48</v>
+        <v>765</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C32" s="5">
-        <v>73</v>
+        <v>390</v>
       </c>
       <c r="D32" s="5">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="E32" s="5">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="F32" s="6">
-        <v>0.66669999999999996</v>
+        <v>1.0182</v>
       </c>
       <c r="G32" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H32" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I32" s="6">
-        <v>0.9375</v>
+        <v>1.25</v>
       </c>
       <c r="J32" s="5">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>60</v>
@@ -1736,384 +1760,384 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" s="5">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D33" s="5">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E33" s="5">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F33" s="6">
-        <v>0.75339999999999996</v>
+        <v>0.70289999999999997</v>
       </c>
       <c r="G33" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H33" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I33" s="6">
-        <v>1</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="J33" s="5">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C34" s="5">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D34" s="5">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E34" s="5">
         <v>78</v>
       </c>
       <c r="F34" s="6">
-        <v>0.70509999999999995</v>
+        <v>0.75639999999999996</v>
       </c>
       <c r="G34" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H34" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I34" s="6">
-        <v>0.75</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="J34" s="5">
-        <v>207</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>61</v>
+        <v>250</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="5">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D35" s="5">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="E35" s="5">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="F35" s="6">
-        <v>0.63329999999999997</v>
+        <v>0.5897</v>
       </c>
       <c r="G35" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H35" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35" s="6">
-        <v>0.68289999999999995</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="J35" s="5">
-        <v>432</v>
+        <v>250</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="5">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="D36" s="5">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="E36" s="5">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="F36" s="6">
-        <v>0.54049999999999998</v>
+        <v>0.76719999999999999</v>
       </c>
       <c r="G36" s="5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H36" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I36" s="6">
-        <v>0.54049999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="J36" s="5">
-        <v>432</v>
+        <v>250</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="C37" s="5">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D37" s="5">
-        <v>225</v>
+        <v>28</v>
       </c>
       <c r="E37" s="5">
-        <v>228</v>
-      </c>
-      <c r="F37" s="7">
-        <v>0.98680000000000001</v>
+        <v>40</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0.7</v>
       </c>
       <c r="G37" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H37" s="5">
-        <v>7</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1.5217000000000001</v>
+        <v>3</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.7</v>
       </c>
       <c r="J37" s="5">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C38" s="5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D38" s="5">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E38" s="5">
-        <v>59</v>
-      </c>
-      <c r="F38" s="7">
-        <v>0.77969999999999995</v>
+        <v>0</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
       </c>
       <c r="G38" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H38" s="5">
-        <v>5</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0.82499999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
       </c>
       <c r="J38" s="5">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C39" s="5">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D39" s="5">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="E39" s="5">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="F39" s="6">
-        <v>0.90100000000000002</v>
+        <v>0.51849999999999996</v>
       </c>
       <c r="G39" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H39" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I39" s="6">
-        <v>1.2</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="J39" s="5">
-        <v>186</v>
+        <v>1379</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C40" s="5">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D40" s="5">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E40" s="5">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F40" s="6">
-        <v>0.75</v>
+        <v>0.74650000000000005</v>
       </c>
       <c r="G40" s="5">
         <v>4</v>
       </c>
       <c r="H40" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40" s="6">
-        <v>0.9</v>
+        <v>0.9375</v>
       </c>
       <c r="J40" s="5">
-        <v>186</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="5">
-        <v>540</v>
+        <v>390</v>
       </c>
       <c r="D41" s="5">
-        <v>285</v>
+        <v>188</v>
       </c>
       <c r="E41" s="5">
-        <v>357</v>
+        <v>242</v>
       </c>
       <c r="F41" s="6">
-        <v>0.79830000000000001</v>
+        <v>0.77690000000000003</v>
       </c>
       <c r="G41" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H41" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I41" s="6">
-        <v>0.97219999999999995</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="J41" s="5">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" s="5">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D42" s="5">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E42" s="5">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F42" s="6">
-        <v>0.47499999999999998</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="G42" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H42" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I42" s="6">
-        <v>0.47499999999999998</v>
+        <v>0.9375</v>
       </c>
       <c r="J42" s="5">
-        <v>452</v>
+        <v>64</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C43" s="5">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D43" s="5">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="E43" s="5">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="F43" s="6">
-        <v>0.58540000000000003</v>
+        <v>0.75339999999999996</v>
       </c>
       <c r="G43" s="5">
         <v>6</v>
       </c>
       <c r="H43" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I43" s="6">
-        <v>0.58540000000000003</v>
+        <v>1</v>
       </c>
       <c r="J43" s="5">
-        <v>452</v>
+        <v>207</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>60</v>
@@ -2121,232 +2145,232 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="5">
         <v>63</v>
       </c>
-      <c r="C44" s="5">
-        <v>16</v>
-      </c>
       <c r="D44" s="5">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="E44" s="5">
-        <v>115</v>
-      </c>
-      <c r="F44" s="7">
-        <v>1.1304000000000001</v>
+        <v>78</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0.70509999999999995</v>
       </c>
       <c r="G44" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H44" s="5">
-        <v>6</v>
-      </c>
-      <c r="I44" s="7">
-        <v>1.25</v>
+        <v>3</v>
+      </c>
+      <c r="I44" s="6">
+        <v>0.75</v>
       </c>
       <c r="J44" s="5">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C45" s="5">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="D45" s="5">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="E45" s="5">
-        <v>65</v>
-      </c>
-      <c r="F45" s="7">
-        <v>1.0307999999999999</v>
+        <v>164</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0.622</v>
       </c>
       <c r="G45" s="5">
         <v>6</v>
       </c>
       <c r="H45" s="5">
-        <v>5</v>
-      </c>
-      <c r="I45" s="7">
-        <v>1.2069000000000001</v>
+        <v>3</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.76919999999999999</v>
       </c>
       <c r="J45" s="5">
-        <v>65</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>64</v>
+        <v>324</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C46" s="5">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D46" s="5">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E46" s="5">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F46" s="6">
-        <v>0.72</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="G46" s="5">
         <v>5</v>
       </c>
       <c r="H46" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I46" s="6">
-        <v>1.25</v>
+        <v>0.68289999999999995</v>
       </c>
       <c r="J46" s="5">
-        <v>108</v>
+        <v>324</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C47" s="5">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D47" s="5">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="E47" s="5">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="F47" s="6">
-        <v>0.78910000000000002</v>
+        <v>0.54049999999999998</v>
       </c>
       <c r="G47" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H47" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I47" s="6">
-        <v>0.96150000000000002</v>
+        <v>0.54049999999999998</v>
       </c>
       <c r="J47" s="5">
-        <v>108</v>
+        <v>324</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C48" s="5">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="D48" s="5">
-        <v>109</v>
+        <v>225</v>
       </c>
       <c r="E48" s="5">
-        <v>130</v>
-      </c>
-      <c r="F48" s="6">
-        <v>0.83850000000000002</v>
+        <v>228</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0.98680000000000001</v>
       </c>
       <c r="G48" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H48" s="5">
-        <v>5</v>
-      </c>
-      <c r="I48" s="6">
-        <v>1.0345</v>
+        <v>7</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1.5217000000000001</v>
       </c>
       <c r="J48" s="5">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C49" s="5">
+        <v>11</v>
+      </c>
+      <c r="D49" s="5">
+        <v>46</v>
+      </c>
+      <c r="E49" s="5">
+        <v>59</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0.77969999999999995</v>
+      </c>
+      <c r="G49" s="5">
+        <v>7</v>
+      </c>
+      <c r="H49" s="5">
+        <v>5</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="J49" s="5">
+        <v>75</v>
+      </c>
+      <c r="K49" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="D49" s="5">
-        <v>69</v>
-      </c>
-      <c r="E49" s="5">
-        <v>122</v>
-      </c>
-      <c r="F49" s="6">
-        <v>0.56559999999999999</v>
-      </c>
-      <c r="G49" s="5">
-        <v>4</v>
-      </c>
-      <c r="H49" s="5">
-        <v>3</v>
-      </c>
-      <c r="I49" s="6">
-        <v>0.73170000000000002</v>
-      </c>
-      <c r="J49" s="5">
-        <v>280</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="5">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D50" s="5">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="E50" s="5">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="F50" s="6">
-        <v>0.82479999999999998</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="G50" s="5">
         <v>7</v>
@@ -2355,158 +2379,158 @@
         <v>5</v>
       </c>
       <c r="I50" s="6">
-        <v>1.3635999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="J50" s="5">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="5">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D51" s="5">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="E51" s="5">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="F51" s="6">
-        <v>0.72109999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="G51" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H51" s="5">
         <v>4</v>
       </c>
       <c r="I51" s="6">
-        <v>0.9375</v>
+        <v>0.9</v>
       </c>
       <c r="J51" s="5">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C52" s="5">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D52" s="5">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E52" s="5">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F52" s="6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G52" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H52" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52" s="6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J52" s="5">
-        <v>686</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53" s="5">
-        <v>50</v>
+        <v>540</v>
       </c>
       <c r="D53" s="5">
-        <v>18</v>
+        <v>285</v>
       </c>
       <c r="E53" s="5">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="F53" s="6">
-        <v>0.4</v>
+        <v>0.79830000000000001</v>
       </c>
       <c r="G53" s="5">
         <v>6</v>
       </c>
       <c r="H53" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I53" s="6">
-        <v>0.4</v>
+        <v>0.97219999999999995</v>
       </c>
       <c r="J53" s="5">
-        <v>686</v>
+        <v>53</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="C54" s="5">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="D54" s="5">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="E54" s="5">
-        <v>60</v>
-      </c>
-      <c r="F54" s="7">
-        <v>0.85</v>
+        <v>223</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0.75780000000000003</v>
       </c>
       <c r="G54" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H54" s="5">
-        <v>4</v>
-      </c>
-      <c r="I54" s="7">
-        <v>0.875</v>
+        <v>6</v>
+      </c>
+      <c r="I54" s="6">
+        <v>1.25</v>
       </c>
       <c r="J54" s="5">
-        <v>164</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>64</v>
+        <v>139</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>11</v>
@@ -2515,13 +2539,13 @@
         <v>60</v>
       </c>
       <c r="D55" s="5">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E55" s="5">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F55" s="6">
-        <v>0.4889</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G55" s="5">
         <v>3</v>
@@ -2530,208 +2554,208 @@
         <v>3</v>
       </c>
       <c r="I55" s="6">
-        <v>0.4889</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="J55" s="5">
-        <v>369</v>
+        <v>139</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="5">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D56" s="5">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E56" s="5">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F56" s="6">
-        <v>0.625</v>
+        <v>0.58540000000000003</v>
       </c>
       <c r="G56" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H56" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" s="6">
-        <v>0.66669999999999996</v>
+        <v>0.58540000000000003</v>
       </c>
       <c r="J56" s="5">
-        <v>369</v>
+        <v>139</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C57" s="5">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D57" s="5">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="E57" s="5">
-        <v>76</v>
-      </c>
-      <c r="F57" s="6">
-        <v>0.59209999999999996</v>
+        <v>115</v>
+      </c>
+      <c r="F57" s="7">
+        <v>1.1304000000000001</v>
       </c>
       <c r="G57" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H57" s="5">
-        <v>3</v>
-      </c>
-      <c r="I57" s="6">
-        <v>0.6129</v>
+        <v>6</v>
+      </c>
+      <c r="I57" s="7">
+        <v>1.25</v>
       </c>
       <c r="J57" s="5">
-        <v>326</v>
+        <v>65</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C58" s="5">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D58" s="5">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E58" s="5">
-        <v>135</v>
-      </c>
-      <c r="F58" s="6">
-        <v>0.54069999999999996</v>
+        <v>65</v>
+      </c>
+      <c r="F58" s="7">
+        <v>1.0307999999999999</v>
       </c>
       <c r="G58" s="5">
+        <v>6</v>
+      </c>
+      <c r="H58" s="5">
         <v>5</v>
       </c>
-      <c r="H58" s="5">
-        <v>4</v>
-      </c>
-      <c r="I58" s="6">
-        <v>0.57779999999999998</v>
+      <c r="I58" s="7">
+        <v>1.2069000000000001</v>
       </c>
       <c r="J58" s="5">
-        <v>326</v>
+        <v>65</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C59" s="5">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D59" s="5">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="E59" s="5">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F59" s="6">
-        <v>0.91779999999999995</v>
+        <v>0.57650000000000001</v>
       </c>
       <c r="G59" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H59" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I59" s="6">
-        <v>1.0938000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="J59" s="5">
-        <v>75</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>61</v>
+        <v>483</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C60" s="5">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="D60" s="5">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="E60" s="5">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="F60" s="6">
-        <v>0.86639999999999995</v>
+        <v>0.50629999999999997</v>
       </c>
       <c r="G60" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H60" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I60" s="6">
-        <v>1.2</v>
+        <v>0.55879999999999996</v>
       </c>
       <c r="J60" s="5">
-        <v>75</v>
+        <v>483</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C61" s="5">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D61" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E61" s="5">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F61" s="6">
-        <v>0.79369999999999996</v>
+        <v>0.51280000000000003</v>
       </c>
       <c r="G61" s="5">
         <v>4</v>
@@ -2740,150 +2764,150 @@
         <v>3</v>
       </c>
       <c r="I61" s="6">
-        <v>0.8</v>
+        <v>0.51280000000000003</v>
       </c>
       <c r="J61" s="5">
-        <v>146</v>
+        <v>483</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C62" s="5">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="D62" s="5">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E62" s="5">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="F62" s="6">
-        <v>0.67949999999999999</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="G62" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H62" s="5">
         <v>4</v>
       </c>
       <c r="I62" s="6">
-        <v>0.71430000000000005</v>
+        <v>0.9375</v>
       </c>
       <c r="J62" s="5">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="5">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D63" s="5">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="E63" s="5">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="F63" s="6">
-        <v>0.63329999999999997</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="G63" s="5">
         <v>6</v>
       </c>
       <c r="H63" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I63" s="6">
-        <v>0.73170000000000002</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="J63" s="5">
-        <v>385</v>
+        <v>152</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C64" s="5">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="D64" s="5">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="E64" s="5">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="F64" s="6">
-        <v>0.50649999999999995</v>
+        <v>0.79390000000000005</v>
       </c>
       <c r="G64" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H64" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I64" s="6">
-        <v>0.57779999999999998</v>
+        <v>1</v>
       </c>
       <c r="J64" s="5">
-        <v>385</v>
+        <v>152</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C65" s="5">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D65" s="5">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="E65" s="5">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="F65" s="6">
-        <v>0.7742</v>
+        <v>0.72</v>
       </c>
       <c r="G65" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H65" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I65" s="6">
-        <v>0.90910000000000002</v>
+        <v>1.25</v>
       </c>
       <c r="J65" s="5">
-        <v>259</v>
+        <v>108</v>
       </c>
       <c r="K65" s="5" t="s">
         <v>60</v>
@@ -2891,34 +2915,34 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C66" s="5">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D66" s="5">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="E66" s="5">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="F66" s="6">
-        <v>0.74029999999999996</v>
+        <v>0.78910000000000002</v>
       </c>
       <c r="G66" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H66" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I66" s="6">
-        <v>0.78949999999999998</v>
+        <v>0.96150000000000002</v>
       </c>
       <c r="J66" s="5">
-        <v>259</v>
+        <v>108</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>60</v>
@@ -2926,139 +2950,139 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C67" s="5">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D67" s="5">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E67" s="5">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="F67" s="6">
-        <v>0.624</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="G67" s="5">
         <v>5</v>
       </c>
       <c r="H67" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I67" s="6">
-        <v>0.85709999999999997</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="J67" s="5">
-        <v>801</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>60</v>
+        <v>364</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" s="5">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="D68" s="5">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="E68" s="5">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="F68" s="6">
-        <v>0.4375</v>
+        <v>0.83850000000000002</v>
       </c>
       <c r="G68" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H68" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I68" s="6">
-        <v>0.4889</v>
+        <v>1.0345</v>
       </c>
       <c r="J68" s="5">
-        <v>1076</v>
+        <v>364</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69" s="5">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D69" s="5">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E69" s="5">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="F69" s="6">
-        <v>0.50309999999999999</v>
+        <v>0.56559999999999999</v>
       </c>
       <c r="G69" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H69" s="5">
         <v>3</v>
       </c>
       <c r="I69" s="6">
-        <v>0.67649999999999999</v>
+        <v>0.73170000000000002</v>
       </c>
       <c r="J69" s="5">
-        <v>815</v>
+        <v>364</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C70" s="5">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D70" s="5">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="E70" s="5">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="F70" s="6">
-        <v>0.60470000000000002</v>
+        <v>0.82479999999999998</v>
       </c>
       <c r="G70" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H70" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I70" s="6">
-        <v>0.60470000000000002</v>
+        <v>1.3635999999999999</v>
       </c>
       <c r="J70" s="5">
-        <v>419</v>
+        <v>148</v>
       </c>
       <c r="K70" s="5" t="s">
         <v>60</v>
@@ -3066,34 +3090,34 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C71" s="5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D71" s="5">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="E71" s="5">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F71" s="6">
-        <v>0.49619999999999997</v>
+        <v>0.72109999999999996</v>
       </c>
       <c r="G71" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H71" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I71" s="6">
-        <v>0.62219999999999998</v>
+        <v>0.9375</v>
       </c>
       <c r="J71" s="5">
-        <v>419</v>
+        <v>148</v>
       </c>
       <c r="K71" s="5" t="s">
         <v>60</v>
@@ -3101,293 +3125,293 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C72" s="5">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D72" s="5">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="E72" s="5">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="F72" s="6">
-        <v>0.62219999999999998</v>
+        <v>0.5746</v>
       </c>
       <c r="G72" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H72" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I72" s="6">
-        <v>0.62219999999999998</v>
+        <v>0.68179999999999996</v>
       </c>
       <c r="J72" s="5">
-        <v>518</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>60</v>
+        <v>638</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" s="5">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D73" s="5">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E73" s="5">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="F73" s="6">
-        <v>0.60740000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G73" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H73" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I73" s="6">
-        <v>0.64439999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="J73" s="5">
-        <v>518</v>
+        <v>638</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C74" s="5">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D74" s="5">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="E74" s="5">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F74" s="6">
-        <v>1.2829999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="G74" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H74" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I74" s="6">
-        <v>1.3462000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="J74" s="5">
-        <v>90</v>
+        <v>638</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C75" s="5">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="D75" s="5">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="E75" s="5">
-        <v>106</v>
-      </c>
-      <c r="F75" s="6">
-        <v>0.79249999999999998</v>
+        <v>60</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0.85</v>
       </c>
       <c r="G75" s="5">
         <v>4</v>
       </c>
       <c r="H75" s="5">
-        <v>3</v>
-      </c>
-      <c r="I75" s="6">
-        <v>0.97219999999999995</v>
+        <v>4</v>
+      </c>
+      <c r="I75" s="7">
+        <v>0.875</v>
       </c>
       <c r="J75" s="5">
-        <v>90</v>
+        <v>164</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C76" s="5">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D76" s="5">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="E76" s="5">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="F76" s="6">
-        <v>0.7611</v>
+        <v>0.6623</v>
       </c>
       <c r="G76" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H76" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I76" s="6">
-        <v>0.90910000000000002</v>
+        <v>0.81079999999999997</v>
       </c>
       <c r="J76" s="5">
-        <v>675</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>60</v>
+        <v>1413</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C77" s="5">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D77" s="5">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E77" s="5">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F77" s="6">
-        <v>0.5222</v>
+        <v>0.43369999999999997</v>
       </c>
       <c r="G77" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H77" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I77" s="6">
-        <v>0.64439999999999997</v>
+        <v>0.48780000000000001</v>
       </c>
       <c r="J77" s="5">
-        <v>533</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>60</v>
+        <v>1503</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C78" s="5">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D78" s="5">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E78" s="5">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="F78" s="6">
-        <v>0.33329999999999999</v>
+        <v>0.4884</v>
       </c>
       <c r="G78" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H78" s="5">
         <v>3</v>
       </c>
       <c r="I78" s="6">
-        <v>0.33329999999999999</v>
+        <v>0.5111</v>
       </c>
       <c r="J78" s="5">
-        <v>533</v>
-      </c>
-      <c r="K78" s="5" t="s">
-        <v>60</v>
+        <v>328</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C79" s="5">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D79" s="5">
         <v>45</v>
       </c>
       <c r="E79" s="5">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F79" s="6">
-        <v>0.52939999999999998</v>
+        <v>0.59209999999999996</v>
       </c>
       <c r="G79" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H79" s="5">
         <v>3</v>
       </c>
       <c r="I79" s="6">
-        <v>0.72499999999999998</v>
+        <v>0.6129</v>
       </c>
       <c r="J79" s="5">
-        <v>475</v>
+        <v>328</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="5">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D80" s="5">
         <v>73</v>
@@ -3399,51 +3423,51 @@
         <v>0.54069999999999996</v>
       </c>
       <c r="G80" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H80" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I80" s="6">
         <v>0.57779999999999998</v>
       </c>
       <c r="J80" s="5">
-        <v>475</v>
+        <v>328</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C81" s="5">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D81" s="5">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="E81" s="5">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="F81" s="6">
-        <v>0.3659</v>
+        <v>0.91779999999999995</v>
       </c>
       <c r="G81" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H81" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I81" s="6">
-        <v>0.3659</v>
+        <v>1.0938000000000001</v>
       </c>
       <c r="J81" s="5">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>60</v>
@@ -3451,34 +3475,34 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C82" s="5">
-        <v>390</v>
+        <v>150</v>
       </c>
       <c r="D82" s="5">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="E82" s="5">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="F82" s="6">
-        <v>0.71479999999999999</v>
+        <v>0.86639999999999995</v>
       </c>
       <c r="G82" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H82" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I82" s="6">
-        <v>0.92110000000000003</v>
+        <v>1.2</v>
       </c>
       <c r="J82" s="5">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>60</v>
@@ -3486,34 +3510,34 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C83" s="5">
+        <v>73</v>
+      </c>
+      <c r="D83" s="5">
+        <v>50</v>
+      </c>
+      <c r="E83" s="5">
         <v>63</v>
       </c>
-      <c r="D83" s="5">
-        <v>56</v>
-      </c>
-      <c r="E83" s="5">
-        <v>83</v>
-      </c>
       <c r="F83" s="6">
-        <v>0.67469999999999997</v>
+        <v>0.79369999999999996</v>
       </c>
       <c r="G83" s="5">
         <v>4</v>
       </c>
       <c r="H83" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I83" s="6">
-        <v>0.68179999999999996</v>
+        <v>0.8</v>
       </c>
       <c r="J83" s="5">
-        <v>378</v>
+        <v>146</v>
       </c>
       <c r="K83" s="5" t="s">
         <v>60</v>
@@ -3521,34 +3545,34 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C84" s="5">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D84" s="5">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E84" s="5">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="F84" s="6">
-        <v>0.65490000000000004</v>
+        <v>0.67949999999999999</v>
       </c>
       <c r="G84" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H84" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I84" s="6">
-        <v>0.75</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="J84" s="5">
-        <v>378</v>
+        <v>146</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>60</v>
@@ -3556,182 +3580,1653 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C85" s="5">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="D85" s="5">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="E85" s="5">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="F85" s="6">
-        <v>0.85599999999999998</v>
+        <v>0.42220000000000002</v>
       </c>
       <c r="G85" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H85" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I85" s="6">
-        <v>1.4286000000000001</v>
+        <v>0.42220000000000002</v>
       </c>
       <c r="J85" s="5">
-        <v>113</v>
-      </c>
-      <c r="K85" s="5" t="s">
-        <v>60</v>
+        <v>1072</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C86" s="5">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D86" s="5">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E86" s="5">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="F86" s="6">
-        <v>0.67859999999999998</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="G86" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H86" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86" s="6">
-        <v>0.76919999999999999</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="J86" s="5">
-        <v>193</v>
+        <v>1072</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C87" s="5">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D87" s="5">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="E87" s="5">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="F87" s="6">
-        <v>0.72789999999999999</v>
+        <v>0.44740000000000002</v>
       </c>
       <c r="G87" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H87" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I87" s="6">
-        <v>0.9677</v>
+        <v>0.44740000000000002</v>
       </c>
       <c r="J87" s="5">
-        <v>193</v>
-      </c>
-      <c r="K87" s="5" t="s">
-        <v>60</v>
+        <v>423</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="5">
-        <v>810</v>
+        <v>76</v>
       </c>
       <c r="D88" s="5">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="E88" s="5">
-        <v>294</v>
+        <v>120</v>
       </c>
       <c r="F88" s="6">
-        <v>0.78569999999999995</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="G88" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H88" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I88" s="6">
-        <v>1.2</v>
+        <v>0.73170000000000002</v>
       </c>
       <c r="J88" s="5">
-        <v>8</v>
+        <v>423</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="5">
+        <v>63</v>
+      </c>
+      <c r="D89" s="5">
+        <v>39</v>
+      </c>
+      <c r="E89" s="5">
+        <v>77</v>
+      </c>
+      <c r="F89" s="6">
+        <v>0.50649999999999995</v>
+      </c>
+      <c r="G89" s="5">
+        <v>3</v>
+      </c>
+      <c r="H89" s="5">
+        <v>3</v>
+      </c>
+      <c r="I89" s="6">
+        <v>0.57779999999999998</v>
+      </c>
+      <c r="J89" s="5">
+        <v>423</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C90" s="5">
+        <v>150</v>
+      </c>
+      <c r="D90" s="5">
+        <v>103</v>
+      </c>
+      <c r="E90" s="5">
+        <v>115</v>
+      </c>
+      <c r="F90" s="6">
+        <v>0.89570000000000005</v>
+      </c>
+      <c r="G90" s="5">
+        <v>5</v>
+      </c>
+      <c r="H90" s="5">
+        <v>4</v>
+      </c>
+      <c r="I90" s="6">
+        <v>1.1537999999999999</v>
+      </c>
+      <c r="J90" s="5">
+        <v>187</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="5">
+        <v>73</v>
+      </c>
+      <c r="D91" s="5">
+        <v>48</v>
+      </c>
+      <c r="E91" s="5">
+        <v>62</v>
+      </c>
+      <c r="F91" s="6">
+        <v>0.7742</v>
+      </c>
+      <c r="G91" s="5">
+        <v>11</v>
+      </c>
+      <c r="H91" s="5">
+        <v>2</v>
+      </c>
+      <c r="I91" s="6">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="J91" s="5">
+        <v>187</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="5">
+        <v>83</v>
+      </c>
+      <c r="D92" s="5">
+        <v>57</v>
+      </c>
+      <c r="E92" s="5">
+        <v>77</v>
+      </c>
+      <c r="F92" s="6">
+        <v>0.74029999999999996</v>
+      </c>
+      <c r="G92" s="5">
+        <v>4</v>
+      </c>
+      <c r="H92" s="5">
+        <v>4</v>
+      </c>
+      <c r="I92" s="6">
+        <v>0.78949999999999998</v>
+      </c>
+      <c r="J92" s="5">
+        <v>187</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="5">
+        <v>76</v>
+      </c>
+      <c r="D93" s="5">
+        <v>78</v>
+      </c>
+      <c r="E93" s="5">
+        <v>125</v>
+      </c>
+      <c r="F93" s="6">
+        <v>0.624</v>
+      </c>
+      <c r="G93" s="5">
+        <v>5</v>
+      </c>
+      <c r="H93" s="5">
+        <v>4</v>
+      </c>
+      <c r="I93" s="6">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="J93" s="5">
+        <v>1108</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="5">
+        <v>53</v>
+      </c>
+      <c r="D94" s="5">
+        <v>35</v>
+      </c>
+      <c r="E94" s="5">
+        <v>80</v>
+      </c>
+      <c r="F94" s="6">
+        <v>0.4375</v>
+      </c>
+      <c r="G94" s="5">
+        <v>3</v>
+      </c>
+      <c r="H94" s="5">
+        <v>3</v>
+      </c>
+      <c r="I94" s="6">
+        <v>0.4889</v>
+      </c>
+      <c r="J94" s="5">
+        <v>1340</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" s="5">
+        <v>43</v>
+      </c>
+      <c r="D95" s="5">
+        <v>47</v>
+      </c>
+      <c r="E95" s="5">
+        <v>88</v>
+      </c>
+      <c r="F95" s="6">
+        <v>0.53410000000000002</v>
+      </c>
+      <c r="G95" s="5">
+        <v>3</v>
+      </c>
+      <c r="H95" s="5">
+        <v>3</v>
+      </c>
+      <c r="I95" s="6">
+        <v>0.57779999999999998</v>
+      </c>
+      <c r="J95" s="5">
+        <v>1428</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C96" s="5">
+        <v>79</v>
+      </c>
+      <c r="D96" s="5">
+        <v>110</v>
+      </c>
+      <c r="E96" s="5">
+        <v>152</v>
+      </c>
+      <c r="F96" s="6">
+        <v>0.72370000000000001</v>
+      </c>
+      <c r="G96" s="5">
+        <v>4</v>
+      </c>
+      <c r="H96" s="5">
+        <v>4</v>
+      </c>
+      <c r="I96" s="6">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="J96" s="5">
+        <v>632</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="5">
+        <v>76</v>
+      </c>
+      <c r="D97" s="5">
+        <v>80</v>
+      </c>
+      <c r="E97" s="5">
+        <v>159</v>
+      </c>
+      <c r="F97" s="6">
+        <v>0.50309999999999999</v>
+      </c>
+      <c r="G97" s="5">
+        <v>3</v>
+      </c>
+      <c r="H97" s="5">
+        <v>3</v>
+      </c>
+      <c r="I97" s="6">
+        <v>0.67649999999999999</v>
+      </c>
+      <c r="J97" s="5">
+        <v>632</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" s="5">
+        <v>150</v>
+      </c>
+      <c r="D98" s="5">
+        <v>100</v>
+      </c>
+      <c r="E98" s="5">
+        <v>138</v>
+      </c>
+      <c r="F98" s="6">
+        <v>0.72460000000000002</v>
+      </c>
+      <c r="G98" s="5">
+        <v>7</v>
+      </c>
+      <c r="H98" s="5">
+        <v>5</v>
+      </c>
+      <c r="I98" s="6">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="J98" s="5">
+        <v>221</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="5">
+        <v>60</v>
+      </c>
+      <c r="D99" s="5">
+        <v>26</v>
+      </c>
+      <c r="E99" s="5">
+        <v>43</v>
+      </c>
+      <c r="F99" s="6">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="G99" s="5">
+        <v>4</v>
+      </c>
+      <c r="H99" s="5">
+        <v>4</v>
+      </c>
+      <c r="I99" s="6">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="J99" s="5">
+        <v>221</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="5">
+        <v>76</v>
+      </c>
+      <c r="D100" s="5">
+        <v>65</v>
+      </c>
+      <c r="E100" s="5">
+        <v>131</v>
+      </c>
+      <c r="F100" s="6">
+        <v>0.49619999999999997</v>
+      </c>
+      <c r="G100" s="5">
+        <v>4</v>
+      </c>
+      <c r="H100" s="5">
+        <v>3</v>
+      </c>
+      <c r="I100" s="6">
+        <v>0.62219999999999998</v>
+      </c>
+      <c r="J100" s="5">
+        <v>221</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" s="5">
+        <v>76</v>
+      </c>
+      <c r="D101" s="5">
+        <v>58</v>
+      </c>
+      <c r="E101" s="5">
+        <v>88</v>
+      </c>
+      <c r="F101" s="6">
+        <v>0.65910000000000002</v>
+      </c>
+      <c r="G101" s="5">
+        <v>4</v>
+      </c>
+      <c r="H101" s="5">
+        <v>3</v>
+      </c>
+      <c r="I101" s="6">
+        <v>0.69769999999999999</v>
+      </c>
+      <c r="J101" s="5">
+        <v>451</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="5">
+        <v>50</v>
+      </c>
+      <c r="D102" s="5">
+        <v>28</v>
+      </c>
+      <c r="E102" s="5">
+        <v>45</v>
+      </c>
+      <c r="F102" s="6">
+        <v>0.62219999999999998</v>
+      </c>
+      <c r="G102" s="5">
+        <v>4</v>
+      </c>
+      <c r="H102" s="5">
+        <v>3</v>
+      </c>
+      <c r="I102" s="6">
+        <v>0.62219999999999998</v>
+      </c>
+      <c r="J102" s="5">
+        <v>451</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="5">
+        <v>66</v>
+      </c>
+      <c r="D103" s="5">
+        <v>82</v>
+      </c>
+      <c r="E103" s="5">
+        <v>135</v>
+      </c>
+      <c r="F103" s="6">
+        <v>0.60740000000000005</v>
+      </c>
+      <c r="G103" s="5">
+        <v>6</v>
+      </c>
+      <c r="H103" s="5">
+        <v>4</v>
+      </c>
+      <c r="I103" s="6">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="J103" s="5">
+        <v>451</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="5">
+        <v>75</v>
+      </c>
+      <c r="D104" s="5">
+        <v>68</v>
+      </c>
+      <c r="E104" s="5">
+        <v>53</v>
+      </c>
+      <c r="F104" s="6">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="G104" s="5">
+        <v>7</v>
+      </c>
+      <c r="H104" s="5">
+        <v>5</v>
+      </c>
+      <c r="I104" s="6">
+        <v>1.3462000000000001</v>
+      </c>
+      <c r="J104" s="5">
+        <v>90</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="5">
+        <v>150</v>
+      </c>
+      <c r="D105" s="5">
+        <v>84</v>
+      </c>
+      <c r="E105" s="5">
+        <v>106</v>
+      </c>
+      <c r="F105" s="6">
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="G105" s="5">
+        <v>4</v>
+      </c>
+      <c r="H105" s="5">
+        <v>3</v>
+      </c>
+      <c r="I105" s="6">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="J105" s="5">
+        <v>90</v>
+      </c>
+      <c r="K105" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C106" s="5">
+        <v>66</v>
+      </c>
+      <c r="D106" s="5">
+        <v>80</v>
+      </c>
+      <c r="E106" s="5">
+        <v>100</v>
+      </c>
+      <c r="F106" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="G106" s="5">
+        <v>4</v>
+      </c>
+      <c r="H106" s="5">
+        <v>4</v>
+      </c>
+      <c r="I106" s="6">
+        <v>1.1111</v>
+      </c>
+      <c r="J106" s="5">
+        <v>614</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="5">
+        <v>92</v>
+      </c>
+      <c r="D107" s="5">
+        <v>137</v>
+      </c>
+      <c r="E107" s="5">
+        <v>180</v>
+      </c>
+      <c r="F107" s="6">
+        <v>0.7611</v>
+      </c>
+      <c r="G107" s="5">
+        <v>6</v>
+      </c>
+      <c r="H107" s="5">
+        <v>6</v>
+      </c>
+      <c r="I107" s="6">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="J107" s="5">
+        <v>614</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="5">
+        <v>50</v>
+      </c>
+      <c r="D108" s="5">
+        <v>26</v>
+      </c>
+      <c r="E108" s="5">
+        <v>45</v>
+      </c>
+      <c r="F108" s="6">
+        <v>0.57779999999999998</v>
+      </c>
+      <c r="G108" s="5">
+        <v>3</v>
+      </c>
+      <c r="H108" s="5">
+        <v>3</v>
+      </c>
+      <c r="I108" s="6">
+        <v>0.57779999999999998</v>
+      </c>
+      <c r="J108" s="5">
+        <v>468</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="5">
+        <v>60</v>
+      </c>
+      <c r="D109" s="5">
+        <v>10</v>
+      </c>
+      <c r="E109" s="5">
+        <v>33</v>
+      </c>
+      <c r="F109" s="6">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="G109" s="5">
+        <v>2</v>
+      </c>
+      <c r="H109" s="5">
+        <v>1</v>
+      </c>
+      <c r="I109" s="6">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="J109" s="5">
+        <v>468</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="5">
+        <v>76</v>
+      </c>
+      <c r="D110" s="5">
+        <v>84</v>
+      </c>
+      <c r="E110" s="5">
+        <v>117</v>
+      </c>
+      <c r="F110" s="6">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="G110" s="5">
+        <v>7</v>
+      </c>
+      <c r="H110" s="5">
+        <v>4</v>
+      </c>
+      <c r="I110" s="6">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="J110" s="5">
+        <v>468</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="5">
+        <v>30</v>
+      </c>
+      <c r="D111" s="5">
+        <v>22</v>
+      </c>
+      <c r="E111" s="5">
+        <v>41</v>
+      </c>
+      <c r="F111" s="6">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="G111" s="5">
+        <v>4</v>
+      </c>
+      <c r="H111" s="5">
+        <v>3</v>
+      </c>
+      <c r="I111" s="6">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="J111" s="5">
+        <v>1576</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C112" s="5">
+        <v>50</v>
+      </c>
+      <c r="D112" s="5">
+        <v>14</v>
+      </c>
+      <c r="E112" s="5">
+        <v>45</v>
+      </c>
+      <c r="F112" s="6">
+        <v>0.31109999999999999</v>
+      </c>
+      <c r="G112" s="5">
+        <v>2</v>
+      </c>
+      <c r="H112" s="5">
+        <v>2</v>
+      </c>
+      <c r="I112" s="6">
+        <v>0.31109999999999999</v>
+      </c>
+      <c r="J112" s="5">
+        <v>562</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="5">
+        <v>66</v>
+      </c>
+      <c r="D113" s="5">
+        <v>47</v>
+      </c>
+      <c r="E113" s="5">
+        <v>90</v>
+      </c>
+      <c r="F113" s="6">
+        <v>0.5222</v>
+      </c>
+      <c r="G113" s="5">
+        <v>7</v>
+      </c>
+      <c r="H113" s="5">
+        <v>4</v>
+      </c>
+      <c r="I113" s="6">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="J113" s="5">
+        <v>562</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="5">
+        <v>50</v>
+      </c>
+      <c r="D114" s="5">
+        <v>15</v>
+      </c>
+      <c r="E114" s="5">
+        <v>45</v>
+      </c>
+      <c r="F114" s="6">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="G114" s="5">
+        <v>4</v>
+      </c>
+      <c r="H114" s="5">
+        <v>3</v>
+      </c>
+      <c r="I114" s="6">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="J114" s="5">
+        <v>562</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C115" s="5">
+        <v>50</v>
+      </c>
+      <c r="D115" s="5">
+        <v>16</v>
+      </c>
+      <c r="E115" s="5">
+        <v>45</v>
+      </c>
+      <c r="F115" s="6">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="G115" s="5">
+        <v>3</v>
+      </c>
+      <c r="H115" s="5">
+        <v>2</v>
+      </c>
+      <c r="I115" s="6">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="J115" s="5">
+        <v>518</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="5">
+        <v>60</v>
+      </c>
+      <c r="D116" s="5">
+        <v>45</v>
+      </c>
+      <c r="E116" s="5">
+        <v>85</v>
+      </c>
+      <c r="F116" s="6">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="G116" s="5">
+        <v>5</v>
+      </c>
+      <c r="H116" s="5">
+        <v>3</v>
+      </c>
+      <c r="I116" s="6">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="J116" s="5">
+        <v>518</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="5">
+        <v>66</v>
+      </c>
+      <c r="D117" s="5">
+        <v>73</v>
+      </c>
+      <c r="E117" s="5">
+        <v>135</v>
+      </c>
+      <c r="F117" s="6">
+        <v>0.54069999999999996</v>
+      </c>
+      <c r="G117" s="5">
+        <v>4</v>
+      </c>
+      <c r="H117" s="5">
+        <v>3</v>
+      </c>
+      <c r="I117" s="6">
+        <v>0.57779999999999998</v>
+      </c>
+      <c r="J117" s="5">
+        <v>518</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C118" s="5">
+        <v>150</v>
+      </c>
+      <c r="D118" s="5">
+        <v>89</v>
+      </c>
+      <c r="E118" s="5">
+        <v>123</v>
+      </c>
+      <c r="F118" s="6">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="G118" s="5">
+        <v>6</v>
+      </c>
+      <c r="H118" s="5">
+        <v>5</v>
+      </c>
+      <c r="I118" s="6">
+        <v>0.81079999999999997</v>
+      </c>
+      <c r="J118" s="5">
+        <v>55</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="5">
+        <v>70</v>
+      </c>
+      <c r="D119" s="5">
+        <v>15</v>
+      </c>
+      <c r="E119" s="5">
+        <v>41</v>
+      </c>
+      <c r="F119" s="6">
+        <v>0.3659</v>
+      </c>
+      <c r="G119" s="5">
+        <v>3</v>
+      </c>
+      <c r="H119" s="5">
+        <v>3</v>
+      </c>
+      <c r="I119" s="6">
+        <v>0.3659</v>
+      </c>
+      <c r="J119" s="5">
+        <v>55</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="5">
         <v>390</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D120" s="5">
+        <v>193</v>
+      </c>
+      <c r="E120" s="5">
+        <v>270</v>
+      </c>
+      <c r="F120" s="6">
+        <v>0.71479999999999999</v>
+      </c>
+      <c r="G120" s="5">
+        <v>6</v>
+      </c>
+      <c r="H120" s="5">
+        <v>5</v>
+      </c>
+      <c r="I120" s="6">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="J120" s="5">
+        <v>55</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C121" s="5">
+        <v>150</v>
+      </c>
+      <c r="D121" s="5">
+        <v>109</v>
+      </c>
+      <c r="E121" s="5">
+        <v>144</v>
+      </c>
+      <c r="F121" s="6">
+        <v>0.75690000000000002</v>
+      </c>
+      <c r="G121" s="5">
+        <v>4</v>
+      </c>
+      <c r="H121" s="5">
+        <v>4</v>
+      </c>
+      <c r="I121" s="6">
+        <v>0.81079999999999997</v>
+      </c>
+      <c r="J121" s="5">
+        <v>219</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="5">
+        <v>63</v>
+      </c>
+      <c r="D122" s="5">
+        <v>56</v>
+      </c>
+      <c r="E122" s="5">
+        <v>83</v>
+      </c>
+      <c r="F122" s="6">
+        <v>0.67469999999999997</v>
+      </c>
+      <c r="G122" s="5">
+        <v>4</v>
+      </c>
+      <c r="H122" s="5">
+        <v>4</v>
+      </c>
+      <c r="I122" s="6">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="J122" s="5">
+        <v>219</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="5">
+        <v>76</v>
+      </c>
+      <c r="D123" s="5">
+        <v>74</v>
+      </c>
+      <c r="E123" s="5">
+        <v>113</v>
+      </c>
+      <c r="F123" s="6">
+        <v>0.65490000000000004</v>
+      </c>
+      <c r="G123" s="5">
+        <v>6</v>
+      </c>
+      <c r="H123" s="5">
+        <v>5</v>
+      </c>
+      <c r="I123" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="J123" s="5">
+        <v>219</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C124" s="5">
+        <v>83</v>
+      </c>
+      <c r="D124" s="5">
+        <v>47</v>
+      </c>
+      <c r="E124" s="5">
+        <v>75</v>
+      </c>
+      <c r="F124" s="6">
+        <v>0.62670000000000003</v>
+      </c>
+      <c r="G124" s="5">
+        <v>6</v>
+      </c>
+      <c r="H124" s="5">
+        <v>4</v>
+      </c>
+      <c r="I124" s="6">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="J124" s="5">
+        <v>159</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="5">
+        <v>270</v>
+      </c>
+      <c r="D125" s="5">
+        <v>208</v>
+      </c>
+      <c r="E125" s="5">
+        <v>243</v>
+      </c>
+      <c r="F125" s="6">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="G125" s="5">
+        <v>10</v>
+      </c>
+      <c r="H125" s="5">
+        <v>7</v>
+      </c>
+      <c r="I125" s="6">
+        <v>1.4286000000000001</v>
+      </c>
+      <c r="J125" s="5">
+        <v>159</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C126" s="5">
+        <v>60</v>
+      </c>
+      <c r="D126" s="5">
+        <v>21</v>
+      </c>
+      <c r="E126" s="5">
+        <v>33</v>
+      </c>
+      <c r="F126" s="6">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="G126" s="5">
+        <v>3</v>
+      </c>
+      <c r="H126" s="5">
+        <v>3</v>
+      </c>
+      <c r="I126" s="6">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="J126" s="5">
+        <v>274</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="5">
+        <v>86</v>
+      </c>
+      <c r="D127" s="5">
+        <v>57</v>
+      </c>
+      <c r="E127" s="5">
+        <v>84</v>
+      </c>
+      <c r="F127" s="6">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="G127" s="5">
+        <v>5</v>
+      </c>
+      <c r="H127" s="5">
+        <v>3</v>
+      </c>
+      <c r="I127" s="6">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="J127" s="5">
+        <v>274</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="5">
+        <v>89</v>
+      </c>
+      <c r="D128" s="5">
+        <v>107</v>
+      </c>
+      <c r="E128" s="5">
+        <v>147</v>
+      </c>
+      <c r="F128" s="6">
+        <v>0.72789999999999999</v>
+      </c>
+      <c r="G128" s="5">
+        <v>6</v>
+      </c>
+      <c r="H128" s="5">
+        <v>6</v>
+      </c>
+      <c r="I128" s="6">
+        <v>0.9677</v>
+      </c>
+      <c r="J128" s="5">
+        <v>274</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C129" s="5">
+        <v>83</v>
+      </c>
+      <c r="D129" s="5">
+        <v>59</v>
+      </c>
+      <c r="E129" s="5">
+        <v>71</v>
+      </c>
+      <c r="F129" s="6">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="G129" s="5">
+        <v>5</v>
+      </c>
+      <c r="H129" s="5">
+        <v>4</v>
+      </c>
+      <c r="I129" s="6">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="J129" s="5">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="5">
+        <v>810</v>
+      </c>
+      <c r="D130" s="5">
+        <v>231</v>
+      </c>
+      <c r="E130" s="5">
+        <v>294</v>
+      </c>
+      <c r="F130" s="6">
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="G130" s="5">
+        <v>8</v>
+      </c>
+      <c r="H130" s="5">
+        <v>5</v>
+      </c>
+      <c r="I130" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="J130" s="5">
+        <v>11</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="5">
+        <v>390</v>
+      </c>
+      <c r="D131" s="5">
         <v>143</v>
       </c>
-      <c r="E89" s="5">
+      <c r="E131" s="5">
         <v>179</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F131" s="6">
         <v>0.79890000000000005</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G131" s="5">
         <v>5</v>
       </c>
-      <c r="H89" s="5">
+      <c r="H131" s="5">
         <v>5</v>
       </c>
-      <c r="I89" s="6">
+      <c r="I131" s="6">
         <v>1.0345</v>
       </c>
-      <c r="J89" s="5">
-        <v>8</v>
-      </c>
-      <c r="K89" s="5" t="s">
-        <v>60</v>
+      <c r="J131" s="5">
+        <v>11</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K89">
-    <sortCondition ref="A71:A89"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K131">
+    <sortCondition ref="A2:A131"/>
+    <sortCondition descending="1" ref="B2:B131"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/tkdetay.xlsx
+++ b/data/tkdetay.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProje\web_app\bilardo-otomsayon\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB06D05F-201B-4456-BE1F-C11EA55CDB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E55DA40-D7CE-45F5-A125-46F18643EBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="78">
   <si>
     <t>Sporcu</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>TAHİR YOLAL</t>
+  </si>
+  <si>
+    <t>2025 B KATEGORİSİ 3.ETAP</t>
   </si>
 </sst>
 </file>
@@ -624,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:K142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -888,33 +891,33 @@
         <v>27</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C8" s="5">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D8" s="5">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="E8" s="5">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="F8" s="6">
-        <v>1.0185</v>
+        <v>0.90680000000000005</v>
       </c>
       <c r="G8" s="5">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5">
         <v>5</v>
       </c>
-      <c r="H8" s="5">
-        <v>4</v>
-      </c>
       <c r="I8" s="6">
-        <v>1.0369999999999999</v>
+        <v>1.2273000000000001</v>
       </c>
       <c r="J8" s="5">
-        <v>143</v>
-      </c>
-      <c r="K8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -923,28 +926,28 @@
         <v>27</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D9" s="5">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="E9" s="5">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="F9" s="6">
-        <v>0.78320000000000001</v>
+        <v>1.0185</v>
       </c>
       <c r="G9" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H9" s="5">
         <v>4</v>
       </c>
       <c r="I9" s="6">
-        <v>1.0345</v>
+        <v>1.0369999999999999</v>
       </c>
       <c r="J9" s="5">
         <v>143</v>
@@ -955,37 +958,37 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="5">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="E10" s="5">
-        <v>200</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1.2150000000000001</v>
+        <v>143</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.78320000000000001</v>
       </c>
       <c r="G10" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10" s="5">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1.6667000000000001</v>
+        <v>4</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1.0345</v>
       </c>
       <c r="J10" s="5">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -993,28 +996,28 @@
         <v>61</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="5">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="D11" s="5">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="E11" s="5">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7">
-        <v>1.173</v>
+        <v>1.2150000000000001</v>
       </c>
       <c r="G11" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>1.4286000000000001</v>
+        <v>1.6667000000000001</v>
       </c>
       <c r="J11" s="5">
         <v>15</v>
@@ -1025,37 +1028,37 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C12" s="5">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="E12" s="5">
-        <v>168</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.64880000000000004</v>
+        <v>185</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1.173</v>
       </c>
       <c r="G12" s="5">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5">
         <v>6</v>
       </c>
-      <c r="H12" s="5">
-        <v>5</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0.85709999999999997</v>
+      <c r="I12" s="7">
+        <v>1.4286000000000001</v>
       </c>
       <c r="J12" s="5">
-        <v>797</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1063,68 +1066,68 @@
         <v>54</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C13" s="5">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D13" s="5">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="E13" s="5">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="F13" s="6">
-        <v>0.56669999999999998</v>
+        <v>0.64880000000000004</v>
       </c>
       <c r="G13" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H13" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="6">
-        <v>0.6</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="J13" s="5">
         <v>797</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C14" s="5">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="D14" s="5">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="E14" s="5">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F14" s="6">
-        <v>0.71430000000000005</v>
+        <v>0.56669999999999998</v>
       </c>
       <c r="G14" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H14" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I14" s="6">
-        <v>0.90910000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="J14" s="5">
-        <v>92</v>
-      </c>
-      <c r="K14" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1133,33 +1136,33 @@
         <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C15" s="5">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="D15" s="5">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="E15" s="5">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="F15" s="6">
-        <v>0.81820000000000004</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="G15" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H15" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I15" s="6">
-        <v>1.125</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="J15" s="5">
         <v>92</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1168,28 +1171,28 @@
         <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="5">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="D16" s="5">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="E16" s="5">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="F16" s="6">
-        <v>0.6744</v>
+        <v>0.81820000000000004</v>
       </c>
       <c r="G16" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H16" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I16" s="6">
-        <v>0.6744</v>
+        <v>1.125</v>
       </c>
       <c r="J16" s="5">
         <v>92</v>
@@ -1200,36 +1203,36 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C17" s="5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D17" s="5">
+        <v>29</v>
+      </c>
+      <c r="E17" s="5">
         <v>43</v>
       </c>
-      <c r="E17" s="5">
-        <v>83</v>
-      </c>
       <c r="F17" s="6">
-        <v>0.5181</v>
+        <v>0.6744</v>
       </c>
       <c r="G17" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H17" s="5">
         <v>3</v>
       </c>
       <c r="I17" s="6">
-        <v>0.62219999999999998</v>
+        <v>0.6744</v>
       </c>
       <c r="J17" s="5">
-        <v>419</v>
-      </c>
-      <c r="K17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1238,33 +1241,33 @@
         <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C18" s="5">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D18" s="5">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="E18" s="5">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="F18" s="6">
-        <v>0.64290000000000003</v>
+        <v>0.5181</v>
       </c>
       <c r="G18" s="5">
         <v>5</v>
       </c>
       <c r="H18" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I18" s="6">
-        <v>0.68179999999999996</v>
+        <v>0.62219999999999998</v>
       </c>
       <c r="J18" s="5">
         <v>419</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1273,28 +1276,28 @@
         <v>40</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="5">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D19" s="5">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="E19" s="5">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="F19" s="6">
-        <v>0.63239999999999996</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="G19" s="5">
         <v>5</v>
       </c>
       <c r="H19" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" s="6">
-        <v>0.80769999999999997</v>
+        <v>0.68179999999999996</v>
       </c>
       <c r="J19" s="5">
         <v>419</v>
@@ -1305,36 +1308,36 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5">
+        <v>60</v>
+      </c>
+      <c r="D20" s="5">
+        <v>43</v>
+      </c>
+      <c r="E20" s="5">
         <v>68</v>
       </c>
-      <c r="C20" s="5">
-        <v>50</v>
-      </c>
-      <c r="D20" s="5">
-        <v>19</v>
-      </c>
-      <c r="E20" s="5">
-        <v>45</v>
-      </c>
       <c r="F20" s="6">
-        <v>0.42220000000000002</v>
+        <v>0.63239999999999996</v>
       </c>
       <c r="G20" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H20" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20" s="6">
-        <v>0.42220000000000002</v>
+        <v>0.80769999999999997</v>
       </c>
       <c r="J20" s="5">
-        <v>471</v>
-      </c>
-      <c r="K20" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1343,33 +1346,33 @@
         <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C21" s="5">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D21" s="5">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E21" s="5">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="F21" s="6">
-        <v>0.62929999999999997</v>
+        <v>0.42220000000000002</v>
       </c>
       <c r="G21" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I21" s="6">
-        <v>0.68179999999999996</v>
+        <v>0.42220000000000002</v>
       </c>
       <c r="J21" s="5">
         <v>471</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1378,28 +1381,28 @@
         <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="5">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D22" s="5">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E22" s="5">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="F22" s="6">
-        <v>0.57689999999999997</v>
+        <v>0.62929999999999997</v>
       </c>
       <c r="G22" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I22" s="6">
-        <v>0.6</v>
+        <v>0.68179999999999996</v>
       </c>
       <c r="J22" s="5">
         <v>471</v>
@@ -1410,37 +1413,37 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23" s="5">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D23" s="5">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E23" s="5">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="F23" s="6">
-        <v>0.36359999999999998</v>
+        <v>0.57689999999999997</v>
       </c>
       <c r="G23" s="5">
         <v>4</v>
       </c>
       <c r="H23" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23" s="6">
-        <v>0.36359999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="J23" s="5">
-        <v>305</v>
+        <v>471</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1448,171 +1451,171 @@
         <v>32</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C24" s="5">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D24" s="5">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="E24" s="5">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="F24" s="6">
-        <v>0</v>
+        <v>0.82320000000000004</v>
       </c>
       <c r="G24" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H24" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I24" s="6">
-        <v>0</v>
+        <v>1.6667000000000001</v>
       </c>
       <c r="J24" s="5">
-        <v>305</v>
-      </c>
-      <c r="K24" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C25" s="5">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D25" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="5">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F25" s="6">
-        <v>0.28889999999999999</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="G25" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25" s="5">
         <v>2</v>
       </c>
       <c r="I25" s="6">
-        <v>0.28889999999999999</v>
+        <v>0.36359999999999998</v>
       </c>
       <c r="J25" s="5">
-        <v>1082</v>
+        <v>305</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C26" s="5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D26" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26" s="5">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F26" s="6">
-        <v>7.6899999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="G26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="6">
-        <v>7.6899999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5">
-        <v>1082</v>
+        <v>305</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C27" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D27" s="5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E27" s="5">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F27" s="6">
-        <v>0.41460000000000002</v>
+        <v>0.28889999999999999</v>
       </c>
       <c r="G27" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" s="5">
         <v>2</v>
       </c>
       <c r="I27" s="6">
-        <v>0.41460000000000002</v>
+        <v>0.28889999999999999</v>
       </c>
       <c r="J27" s="5">
-        <v>683</v>
-      </c>
-      <c r="K27" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D28" s="5">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E28" s="5">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F28" s="6">
-        <v>0.63639999999999997</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="G28" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28" s="6">
-        <v>0.63639999999999997</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="J28" s="5">
-        <v>683</v>
+        <v>1082</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>59</v>
@@ -1623,101 +1626,101 @@
         <v>47</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C29" s="5">
         <v>50</v>
       </c>
       <c r="D29" s="5">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E29" s="5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F29" s="6">
-        <v>0.57140000000000002</v>
+        <v>0.41460000000000002</v>
       </c>
       <c r="G29" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" s="5">
         <v>2</v>
       </c>
       <c r="I29" s="6">
-        <v>0.57140000000000002</v>
+        <v>0.41460000000000002</v>
       </c>
       <c r="J29" s="5">
         <v>683</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C30" s="5">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D30" s="5">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E30" s="5">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="F30" s="6">
-        <v>0.56469999999999998</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="G30" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H30" s="5">
         <v>3</v>
       </c>
       <c r="I30" s="6">
-        <v>0.57779999999999998</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="J30" s="5">
-        <v>765</v>
-      </c>
-      <c r="K30" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="5">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D31" s="5">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="E31" s="5">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="F31" s="6">
-        <v>0.58789999999999998</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="G31" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H31" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I31" s="6">
-        <v>0.69769999999999999</v>
+        <v>0.57140000000000002</v>
       </c>
       <c r="J31" s="5">
-        <v>765</v>
+        <v>683</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>59</v>
@@ -1725,279 +1728,279 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C32" s="5">
-        <v>390</v>
+        <v>53</v>
       </c>
       <c r="D32" s="5">
-        <v>224</v>
+        <v>48</v>
       </c>
       <c r="E32" s="5">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="F32" s="6">
-        <v>1.0182</v>
+        <v>0.56469999999999998</v>
       </c>
       <c r="G32" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H32" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I32" s="6">
-        <v>1.25</v>
+        <v>0.57779999999999998</v>
       </c>
       <c r="J32" s="5">
-        <v>27</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>60</v>
+        <v>765</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C33" s="5">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D33" s="5">
         <v>97</v>
       </c>
       <c r="E33" s="5">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="F33" s="6">
-        <v>0.70289999999999997</v>
+        <v>0.58789999999999998</v>
       </c>
       <c r="G33" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H33" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I33" s="6">
-        <v>0.91300000000000003</v>
+        <v>0.69769999999999999</v>
       </c>
       <c r="J33" s="5">
-        <v>27</v>
+        <v>765</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C34" s="5">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D34" s="5">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E34" s="5">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F34" s="6">
-        <v>0.75639999999999996</v>
+        <v>0.80359999999999998</v>
       </c>
       <c r="G34" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H34" s="5">
         <v>5</v>
       </c>
       <c r="I34" s="6">
-        <v>0.90910000000000002</v>
+        <v>0.8095</v>
       </c>
       <c r="J34" s="5">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="5">
+        <v>390</v>
+      </c>
+      <c r="D35" s="5">
+        <v>224</v>
+      </c>
+      <c r="E35" s="5">
+        <v>220</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1.0182</v>
+      </c>
+      <c r="G35" s="5">
         <v>11</v>
       </c>
-      <c r="C35" s="5">
-        <v>83</v>
-      </c>
-      <c r="D35" s="5">
-        <v>46</v>
-      </c>
-      <c r="E35" s="5">
-        <v>78</v>
-      </c>
-      <c r="F35" s="6">
-        <v>0.5897</v>
-      </c>
-      <c r="G35" s="5">
-        <v>4</v>
-      </c>
       <c r="H35" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I35" s="6">
-        <v>0.69699999999999995</v>
+        <v>1.25</v>
       </c>
       <c r="J35" s="5">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C36" s="5">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D36" s="5">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="E36" s="5">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="F36" s="6">
-        <v>0.76719999999999999</v>
+        <v>0.70289999999999997</v>
       </c>
       <c r="G36" s="5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H36" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I36" s="6">
-        <v>1.5</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="J36" s="5">
-        <v>250</v>
+        <v>27</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C37" s="5">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D37" s="5">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E37" s="5">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="F37" s="6">
-        <v>0.7</v>
+        <v>0.75639999999999996</v>
       </c>
       <c r="G37" s="5">
+        <v>6</v>
+      </c>
+      <c r="H37" s="5">
         <v>5</v>
       </c>
-      <c r="H37" s="5">
-        <v>3</v>
-      </c>
       <c r="I37" s="6">
-        <v>0.7</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="J37" s="5">
-        <v>300</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>60</v>
+        <v>250</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C38" s="5">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D38" s="5">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E38" s="5">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F38" s="6">
-        <v>0</v>
+        <v>0.5897</v>
       </c>
       <c r="G38" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38" s="6">
-        <v>0</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="J38" s="5">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="5">
+        <v>92</v>
+      </c>
+      <c r="D39" s="5">
+        <v>145</v>
+      </c>
+      <c r="E39" s="5">
+        <v>189</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.76719999999999999</v>
+      </c>
+      <c r="G39" s="5">
         <v>11</v>
       </c>
-      <c r="C39" s="5">
-        <v>50</v>
-      </c>
-      <c r="D39" s="5">
-        <v>42</v>
-      </c>
-      <c r="E39" s="5">
-        <v>81</v>
-      </c>
-      <c r="F39" s="6">
-        <v>0.51849999999999996</v>
-      </c>
-      <c r="G39" s="5">
-        <v>6</v>
-      </c>
       <c r="H39" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I39" s="6">
-        <v>0.55559999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="J39" s="5">
-        <v>1379</v>
+        <v>250</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>59</v>
@@ -2005,162 +2008,162 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C40" s="5">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="D40" s="5">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E40" s="5">
         <v>71</v>
       </c>
       <c r="F40" s="6">
-        <v>0.74650000000000005</v>
+        <v>0.84509999999999996</v>
       </c>
       <c r="G40" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H40" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40" s="6">
-        <v>0.9375</v>
+        <v>1.0713999999999999</v>
       </c>
       <c r="J40" s="5">
-        <v>64</v>
+        <v>291</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C41" s="5">
-        <v>390</v>
+        <v>53</v>
       </c>
       <c r="D41" s="5">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="E41" s="5">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="F41" s="6">
-        <v>0.77690000000000003</v>
+        <v>0.7</v>
       </c>
       <c r="G41" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H41" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I41" s="6">
-        <v>0.83330000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="J41" s="5">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C42" s="5">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D42" s="5">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E42" s="5">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="F42" s="6">
-        <v>0.66669999999999996</v>
+        <v>0</v>
       </c>
       <c r="G42" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H42" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I42" s="6">
-        <v>0.9375</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C43" s="5">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D43" s="5">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="E43" s="5">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F43" s="6">
-        <v>0.75339999999999996</v>
+        <v>0.51849999999999996</v>
       </c>
       <c r="G43" s="5">
         <v>6</v>
       </c>
       <c r="H43" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I43" s="6">
-        <v>1</v>
+        <v>0.55559999999999998</v>
       </c>
       <c r="J43" s="5">
-        <v>207</v>
+        <v>1379</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C44" s="5">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D44" s="5">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E44" s="5">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F44" s="6">
-        <v>0.70509999999999995</v>
+        <v>0.74650000000000005</v>
       </c>
       <c r="G44" s="5">
         <v>4</v>
@@ -2169,80 +2172,80 @@
         <v>3</v>
       </c>
       <c r="I44" s="6">
-        <v>0.75</v>
+        <v>0.9375</v>
       </c>
       <c r="J44" s="5">
-        <v>207</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C45" s="5">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="D45" s="5">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="E45" s="5">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="F45" s="6">
-        <v>0.622</v>
+        <v>0.77690000000000003</v>
       </c>
       <c r="G45" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H45" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I45" s="6">
-        <v>0.76919999999999999</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="J45" s="5">
-        <v>324</v>
-      </c>
-      <c r="K45" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K45" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46" s="5">
         <v>73</v>
       </c>
       <c r="D46" s="5">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="E46" s="5">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F46" s="6">
-        <v>0.63329999999999997</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="G46" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H46" s="5">
         <v>4</v>
       </c>
       <c r="I46" s="6">
-        <v>0.68289999999999995</v>
+        <v>0.9375</v>
       </c>
       <c r="J46" s="5">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>59</v>
@@ -2250,524 +2253,524 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="C47" s="5">
+        <v>55</v>
+      </c>
+      <c r="D47" s="5">
+        <v>56</v>
+      </c>
+      <c r="E47" s="5">
+        <v>62</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0.9032</v>
+      </c>
+      <c r="G47" s="5">
+        <v>7</v>
+      </c>
+      <c r="H47" s="5">
+        <v>5</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0.9032</v>
+      </c>
+      <c r="J47" s="5">
+        <v>220</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D47" s="5">
-        <v>20</v>
-      </c>
-      <c r="E47" s="5">
-        <v>37</v>
-      </c>
-      <c r="F47" s="6">
-        <v>0.54049999999999998</v>
-      </c>
-      <c r="G47" s="5">
-        <v>3</v>
-      </c>
-      <c r="H47" s="5">
-        <v>2</v>
-      </c>
-      <c r="I47" s="6">
-        <v>0.54049999999999998</v>
-      </c>
-      <c r="J47" s="5">
-        <v>324</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C48" s="5">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D48" s="5">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="E48" s="5">
-        <v>228</v>
-      </c>
-      <c r="F48" s="7">
-        <v>0.98680000000000001</v>
+        <v>146</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0.75339999999999996</v>
       </c>
       <c r="G48" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H48" s="5">
-        <v>7</v>
-      </c>
-      <c r="I48" s="7">
-        <v>1.5217000000000001</v>
+        <v>6</v>
+      </c>
+      <c r="I48" s="6">
+        <v>1</v>
       </c>
       <c r="J48" s="5">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C49" s="5">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D49" s="5">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E49" s="5">
-        <v>59</v>
-      </c>
-      <c r="F49" s="7">
-        <v>0.77969999999999995</v>
+        <v>78</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.70509999999999995</v>
       </c>
       <c r="G49" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H49" s="5">
-        <v>5</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0.82499999999999996</v>
+        <v>3</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0.75</v>
       </c>
       <c r="J49" s="5">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C50" s="5">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D50" s="5">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="E50" s="5">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="F50" s="6">
-        <v>0.90100000000000002</v>
+        <v>0.622</v>
       </c>
       <c r="G50" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H50" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I50" s="6">
-        <v>1.2</v>
+        <v>0.76919999999999999</v>
       </c>
       <c r="J50" s="5">
-        <v>186</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>60</v>
+        <v>324</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C51" s="5">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D51" s="5">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E51" s="5">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F51" s="6">
-        <v>0.75</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="G51" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H51" s="5">
         <v>4</v>
       </c>
       <c r="I51" s="6">
-        <v>0.9</v>
+        <v>0.68289999999999995</v>
       </c>
       <c r="J51" s="5">
-        <v>186</v>
+        <v>324</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C52" s="5">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D52" s="5">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E52" s="5">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F52" s="6">
-        <v>0.6</v>
+        <v>0.54049999999999998</v>
       </c>
       <c r="G52" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I52" s="6">
-        <v>0.6</v>
+        <v>0.54049999999999998</v>
       </c>
       <c r="J52" s="5">
-        <v>53</v>
-      </c>
-      <c r="K52" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K52" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C53" s="5">
-        <v>540</v>
+        <v>20</v>
       </c>
       <c r="D53" s="5">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="E53" s="5">
-        <v>357</v>
-      </c>
-      <c r="F53" s="6">
-        <v>0.79830000000000001</v>
+        <v>228</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.98680000000000001</v>
       </c>
       <c r="G53" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H53" s="5">
-        <v>6</v>
-      </c>
-      <c r="I53" s="6">
-        <v>0.97219999999999995</v>
+        <v>7</v>
+      </c>
+      <c r="I53" s="7">
+        <v>1.5217000000000001</v>
       </c>
       <c r="J53" s="5">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C54" s="5">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="D54" s="5">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="E54" s="5">
-        <v>223</v>
-      </c>
-      <c r="F54" s="6">
-        <v>0.75780000000000003</v>
+        <v>59</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0.77969999999999995</v>
       </c>
       <c r="G54" s="5">
         <v>7</v>
       </c>
       <c r="H54" s="5">
-        <v>6</v>
-      </c>
-      <c r="I54" s="6">
-        <v>1.25</v>
+        <v>5</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0.82499999999999996</v>
       </c>
       <c r="J54" s="5">
-        <v>139</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="C55" s="5">
+        <v>81</v>
+      </c>
+      <c r="D55" s="5">
+        <v>118</v>
+      </c>
+      <c r="E55" s="5">
+        <v>143</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0.82520000000000004</v>
+      </c>
+      <c r="G55" s="5">
+        <v>8</v>
+      </c>
+      <c r="H55" s="5">
+        <v>6</v>
+      </c>
+      <c r="I55" s="6">
+        <v>1.0345</v>
+      </c>
+      <c r="J55" s="5">
+        <v>162</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D55" s="5">
-        <v>19</v>
-      </c>
-      <c r="E55" s="5">
-        <v>40</v>
-      </c>
-      <c r="F55" s="6">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="G55" s="5">
-        <v>3</v>
-      </c>
-      <c r="H55" s="5">
-        <v>3</v>
-      </c>
-      <c r="I55" s="6">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="J55" s="5">
-        <v>139</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C56" s="5">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D56" s="5">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="E56" s="5">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="F56" s="6">
-        <v>0.58540000000000003</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="G56" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H56" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I56" s="6">
-        <v>0.58540000000000003</v>
+        <v>1.2</v>
       </c>
       <c r="J56" s="5">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C57" s="5">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D57" s="5">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="E57" s="5">
-        <v>115</v>
-      </c>
-      <c r="F57" s="7">
-        <v>1.1304000000000001</v>
+        <v>60</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0.75</v>
       </c>
       <c r="G57" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H57" s="5">
-        <v>6</v>
-      </c>
-      <c r="I57" s="7">
-        <v>1.25</v>
+        <v>4</v>
+      </c>
+      <c r="I57" s="6">
+        <v>0.9</v>
       </c>
       <c r="J57" s="5">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C58" s="5">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="D58" s="5">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E58" s="5">
-        <v>65</v>
-      </c>
-      <c r="F58" s="7">
-        <v>1.0307999999999999</v>
+        <v>45</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0.6</v>
       </c>
       <c r="G58" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H58" s="5">
-        <v>5</v>
-      </c>
-      <c r="I58" s="7">
-        <v>1.2069000000000001</v>
+        <v>4</v>
+      </c>
+      <c r="I58" s="6">
+        <v>0.6</v>
       </c>
       <c r="J58" s="5">
-        <v>65</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C59" s="5">
-        <v>63</v>
+        <v>540</v>
       </c>
       <c r="D59" s="5">
-        <v>49</v>
+        <v>285</v>
       </c>
       <c r="E59" s="5">
-        <v>85</v>
+        <v>357</v>
       </c>
       <c r="F59" s="6">
-        <v>0.57650000000000001</v>
+        <v>0.79830000000000001</v>
       </c>
       <c r="G59" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H59" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I59" s="6">
-        <v>0.75</v>
+        <v>0.97219999999999995</v>
       </c>
       <c r="J59" s="5">
-        <v>483</v>
-      </c>
-      <c r="K59" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K59" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C60" s="5">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="D60" s="5">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="E60" s="5">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="F60" s="6">
-        <v>0.50629999999999997</v>
+        <v>0.75780000000000003</v>
       </c>
       <c r="G60" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H60" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I60" s="6">
-        <v>0.55879999999999996</v>
+        <v>1.25</v>
       </c>
       <c r="J60" s="5">
-        <v>483</v>
-      </c>
-      <c r="K60" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" s="5">
         <v>60</v>
       </c>
       <c r="D61" s="5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E61" s="5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F61" s="6">
-        <v>0.51280000000000003</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G61" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H61" s="5">
         <v>3</v>
       </c>
       <c r="I61" s="6">
-        <v>0.51280000000000003</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="J61" s="5">
-        <v>483</v>
+        <v>139</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>59</v>
@@ -2775,34 +2778,34 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="5">
         <v>70</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="5">
-        <v>150</v>
-      </c>
       <c r="D62" s="5">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="E62" s="5">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="F62" s="6">
-        <v>0.77700000000000002</v>
+        <v>0.58540000000000003</v>
       </c>
       <c r="G62" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H62" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I62" s="6">
-        <v>0.9375</v>
+        <v>0.58540000000000003</v>
       </c>
       <c r="J62" s="5">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="K62" s="5" t="s">
         <v>59</v>
@@ -2810,209 +2813,209 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C63" s="5">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D63" s="5">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="E63" s="5">
-        <v>24</v>
-      </c>
-      <c r="F63" s="6">
-        <v>0.58330000000000004</v>
+        <v>115</v>
+      </c>
+      <c r="F63" s="7">
+        <v>1.1304000000000001</v>
       </c>
       <c r="G63" s="5">
+        <v>8</v>
+      </c>
+      <c r="H63" s="5">
         <v>6</v>
       </c>
-      <c r="H63" s="5">
-        <v>2</v>
-      </c>
-      <c r="I63" s="6">
-        <v>0.58330000000000004</v>
+      <c r="I63" s="7">
+        <v>1.25</v>
       </c>
       <c r="J63" s="5">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C64" s="5">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="D64" s="5">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="E64" s="5">
-        <v>131</v>
-      </c>
-      <c r="F64" s="6">
-        <v>0.79390000000000005</v>
+        <v>65</v>
+      </c>
+      <c r="F64" s="7">
+        <v>1.0307999999999999</v>
       </c>
       <c r="G64" s="5">
+        <v>6</v>
+      </c>
+      <c r="H64" s="5">
         <v>5</v>
       </c>
-      <c r="H64" s="5">
-        <v>4</v>
-      </c>
-      <c r="I64" s="6">
-        <v>1</v>
+      <c r="I64" s="7">
+        <v>1.2069000000000001</v>
       </c>
       <c r="J64" s="5">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C65" s="5">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D65" s="5">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E65" s="5">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="F65" s="6">
-        <v>0.72</v>
+        <v>0.57650000000000001</v>
       </c>
       <c r="G65" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H65" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I65" s="6">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="J65" s="5">
-        <v>108</v>
-      </c>
-      <c r="K65" s="5" t="s">
-        <v>60</v>
+        <v>483</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C66" s="5">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D66" s="5">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="E66" s="5">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="F66" s="6">
-        <v>0.78910000000000002</v>
+        <v>0.50629999999999997</v>
       </c>
       <c r="G66" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H66" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I66" s="6">
-        <v>0.96150000000000002</v>
+        <v>0.55879999999999996</v>
       </c>
       <c r="J66" s="5">
-        <v>108</v>
+        <v>483</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C67" s="5">
         <v>60</v>
       </c>
       <c r="D67" s="5">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E67" s="5">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F67" s="6">
-        <v>0.64290000000000003</v>
+        <v>0.51280000000000003</v>
       </c>
       <c r="G67" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H67" s="5">
         <v>3</v>
       </c>
       <c r="I67" s="6">
-        <v>0.64290000000000003</v>
+        <v>0.51280000000000003</v>
       </c>
       <c r="J67" s="5">
-        <v>364</v>
-      </c>
-      <c r="K67" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="K67" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C68" s="5">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="D68" s="5">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E68" s="5">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F68" s="6">
-        <v>0.83850000000000002</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="G68" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H68" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I68" s="6">
-        <v>1.0345</v>
+        <v>0.9375</v>
       </c>
       <c r="J68" s="5">
-        <v>364</v>
+        <v>152</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>59</v>
@@ -3020,34 +3023,34 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C69" s="5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D69" s="5">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="E69" s="5">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="F69" s="6">
-        <v>0.56559999999999999</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="G69" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H69" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" s="6">
-        <v>0.73170000000000002</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="J69" s="5">
-        <v>364</v>
+        <v>152</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>59</v>
@@ -3055,372 +3058,372 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C70" s="5">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="D70" s="5">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E70" s="5">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F70" s="6">
-        <v>0.82479999999999998</v>
+        <v>0.79390000000000005</v>
       </c>
       <c r="G70" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H70" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I70" s="6">
-        <v>1.3635999999999999</v>
+        <v>1</v>
       </c>
       <c r="J70" s="5">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C71" s="5">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D71" s="5">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E71" s="5">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="F71" s="6">
-        <v>0.72109999999999996</v>
+        <v>0.96230000000000004</v>
       </c>
       <c r="G71" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H71" s="5">
         <v>4</v>
       </c>
       <c r="I71" s="6">
-        <v>0.9375</v>
+        <v>1.4286000000000001</v>
       </c>
       <c r="J71" s="5">
-        <v>148</v>
-      </c>
-      <c r="K71" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C72" s="5">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D72" s="5">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="E72" s="5">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F72" s="6">
-        <v>0.5746</v>
+        <v>0.72</v>
       </c>
       <c r="G72" s="5">
         <v>5</v>
       </c>
       <c r="H72" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I72" s="6">
-        <v>0.68179999999999996</v>
+        <v>1.25</v>
       </c>
       <c r="J72" s="5">
-        <v>638</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>59</v>
+        <v>108</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C73" s="5">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D73" s="5">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="E73" s="5">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="F73" s="6">
-        <v>0.5</v>
+        <v>0.78910000000000002</v>
       </c>
       <c r="G73" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H73" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I73" s="6">
-        <v>0.5</v>
+        <v>0.96150000000000002</v>
       </c>
       <c r="J73" s="5">
-        <v>638</v>
+        <v>108</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C74" s="5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D74" s="5">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E74" s="5">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F74" s="6">
-        <v>0.4</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="G74" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H74" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I74" s="6">
-        <v>0.4</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="J74" s="5">
-        <v>638</v>
-      </c>
-      <c r="K74" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C75" s="5">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="D75" s="5">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="E75" s="5">
-        <v>60</v>
-      </c>
-      <c r="F75" s="7">
-        <v>0.85</v>
+        <v>130</v>
+      </c>
+      <c r="F75" s="6">
+        <v>0.83850000000000002</v>
       </c>
       <c r="G75" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H75" s="5">
-        <v>4</v>
-      </c>
-      <c r="I75" s="7">
-        <v>0.875</v>
+        <v>5</v>
+      </c>
+      <c r="I75" s="6">
+        <v>1.0345</v>
       </c>
       <c r="J75" s="5">
-        <v>164</v>
+        <v>364</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C76" s="5">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D76" s="5">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E76" s="5">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="F76" s="6">
-        <v>0.6623</v>
+        <v>0.56559999999999999</v>
       </c>
       <c r="G76" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H76" s="5">
         <v>3</v>
       </c>
       <c r="I76" s="6">
-        <v>0.81079999999999997</v>
+        <v>0.73170000000000002</v>
       </c>
       <c r="J76" s="5">
-        <v>1413</v>
-      </c>
-      <c r="K76" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="K76" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C77" s="5">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D77" s="5">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="E77" s="5">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="F77" s="6">
-        <v>0.43369999999999997</v>
+        <v>0.84509999999999996</v>
       </c>
       <c r="G77" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H77" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I77" s="6">
-        <v>0.48780000000000001</v>
+        <v>1.2069000000000001</v>
       </c>
       <c r="J77" s="5">
-        <v>1503</v>
+        <v>109</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="5">
         <v>68</v>
       </c>
-      <c r="C78" s="5">
-        <v>73</v>
-      </c>
       <c r="D78" s="5">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="E78" s="5">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="F78" s="6">
-        <v>0.4884</v>
+        <v>0.82479999999999998</v>
       </c>
       <c r="G78" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H78" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I78" s="6">
-        <v>0.5111</v>
+        <v>1.3635999999999999</v>
       </c>
       <c r="J78" s="5">
-        <v>328</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>59</v>
+        <v>148</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C79" s="5">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D79" s="5">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="E79" s="5">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="F79" s="6">
-        <v>0.59209999999999996</v>
+        <v>0.72109999999999996</v>
       </c>
       <c r="G79" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H79" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I79" s="6">
-        <v>0.6129</v>
+        <v>0.9375</v>
       </c>
       <c r="J79" s="5">
-        <v>328</v>
+        <v>148</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C80" s="5">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D80" s="5">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E80" s="5">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F80" s="6">
-        <v>0.54069999999999996</v>
+        <v>0.5746</v>
       </c>
       <c r="G80" s="5">
         <v>5</v>
@@ -3429,185 +3432,185 @@
         <v>4</v>
       </c>
       <c r="I80" s="6">
-        <v>0.57779999999999998</v>
+        <v>0.68179999999999996</v>
       </c>
       <c r="J80" s="5">
-        <v>328</v>
-      </c>
-      <c r="K80" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C81" s="5">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="D81" s="5">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E81" s="5">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="F81" s="6">
-        <v>0.91779999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G81" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H81" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I81" s="6">
-        <v>1.0938000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="J81" s="5">
-        <v>75</v>
+        <v>638</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C82" s="5">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D82" s="5">
-        <v>266</v>
+        <v>18</v>
       </c>
       <c r="E82" s="5">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="F82" s="6">
-        <v>0.86639999999999995</v>
+        <v>0.4</v>
       </c>
       <c r="G82" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H82" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I82" s="6">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="J82" s="5">
-        <v>75</v>
+        <v>638</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C83" s="5">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D83" s="5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E83" s="5">
+        <v>60</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="G83" s="5">
+        <v>4</v>
+      </c>
+      <c r="H83" s="5">
+        <v>4</v>
+      </c>
+      <c r="I83" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="J83" s="5">
+        <v>164</v>
+      </c>
+      <c r="K83" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="F83" s="6">
-        <v>0.79369999999999996</v>
-      </c>
-      <c r="G83" s="5">
-        <v>4</v>
-      </c>
-      <c r="H83" s="5">
-        <v>3</v>
-      </c>
-      <c r="I83" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="J83" s="5">
-        <v>146</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C84" s="5">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D84" s="5">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E84" s="5">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F84" s="6">
-        <v>0.67949999999999999</v>
+        <v>0.6623</v>
       </c>
       <c r="G84" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H84" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I84" s="6">
-        <v>0.71430000000000005</v>
+        <v>0.81079999999999997</v>
       </c>
       <c r="J84" s="5">
-        <v>146</v>
-      </c>
-      <c r="K84" s="5" t="s">
-        <v>60</v>
+        <v>1413</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C85" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D85" s="5">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E85" s="5">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F85" s="6">
-        <v>0.42220000000000002</v>
+        <v>0.43369999999999997</v>
       </c>
       <c r="G85" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H85" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85" s="6">
-        <v>0.42220000000000002</v>
+        <v>0.48780000000000001</v>
       </c>
       <c r="J85" s="5">
-        <v>1072</v>
+        <v>1503</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>59</v>
@@ -3615,57 +3618,57 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="5">
         <v>73</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="5">
-        <v>50</v>
-      </c>
       <c r="D86" s="5">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E86" s="5">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="F86" s="6">
-        <v>0.41670000000000001</v>
+        <v>0.4884</v>
       </c>
       <c r="G86" s="5">
         <v>3</v>
       </c>
       <c r="H86" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86" s="6">
-        <v>0.41670000000000001</v>
+        <v>0.5111</v>
       </c>
       <c r="J86" s="5">
-        <v>1072</v>
-      </c>
-      <c r="K86" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C87" s="5">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D87" s="5">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E87" s="5">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F87" s="6">
-        <v>0.44740000000000002</v>
+        <v>0.59209999999999996</v>
       </c>
       <c r="G87" s="5">
         <v>3</v>
@@ -3674,45 +3677,45 @@
         <v>3</v>
       </c>
       <c r="I87" s="6">
-        <v>0.44740000000000002</v>
+        <v>0.6129</v>
       </c>
       <c r="J87" s="5">
-        <v>423</v>
-      </c>
-      <c r="K87" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="K87" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" s="5">
         <v>76</v>
       </c>
       <c r="D88" s="5">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E88" s="5">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="F88" s="6">
-        <v>0.63329999999999997</v>
+        <v>0.54069999999999996</v>
       </c>
       <c r="G88" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H88" s="5">
         <v>4</v>
       </c>
       <c r="I88" s="6">
-        <v>0.73170000000000002</v>
+        <v>0.57779999999999998</v>
       </c>
       <c r="J88" s="5">
-        <v>423</v>
+        <v>328</v>
       </c>
       <c r="K88" s="5" t="s">
         <v>59</v>
@@ -3720,57 +3723,57 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="C89" s="5">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D89" s="5">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="E89" s="5">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="F89" s="6">
-        <v>0.50649999999999995</v>
+        <v>0.99170000000000003</v>
       </c>
       <c r="G89" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H89" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I89" s="6">
-        <v>0.57779999999999998</v>
+        <v>1.0345</v>
       </c>
       <c r="J89" s="5">
-        <v>423</v>
-      </c>
-      <c r="K89" s="5" t="s">
-        <v>59</v>
+        <v>92</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C90" s="5">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="D90" s="5">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="E90" s="5">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="F90" s="6">
-        <v>0.89570000000000005</v>
+        <v>0.91779999999999995</v>
       </c>
       <c r="G90" s="5">
         <v>5</v>
@@ -3779,185 +3782,185 @@
         <v>4</v>
       </c>
       <c r="I90" s="6">
-        <v>1.1537999999999999</v>
+        <v>1.0938000000000001</v>
       </c>
       <c r="J90" s="5">
-        <v>187</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C91" s="5">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="D91" s="5">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c r="E91" s="5">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="F91" s="6">
-        <v>0.7742</v>
+        <v>0.86639999999999995</v>
       </c>
       <c r="G91" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H91" s="5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I91" s="6">
-        <v>0.90910000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J91" s="5">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="C92" s="5">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D92" s="5">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E92" s="5">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="F92" s="6">
-        <v>0.74029999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="G92" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H92" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I92" s="6">
-        <v>0.78949999999999998</v>
+        <v>0.96</v>
       </c>
       <c r="J92" s="5">
-        <v>187</v>
-      </c>
-      <c r="K92" s="5" t="s">
-        <v>59</v>
+        <v>153</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C93" s="5">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D93" s="5">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E93" s="5">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="F93" s="6">
-        <v>0.624</v>
+        <v>0.79369999999999996</v>
       </c>
       <c r="G93" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H93" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I93" s="6">
-        <v>0.85709999999999997</v>
+        <v>0.8</v>
       </c>
       <c r="J93" s="5">
-        <v>1108</v>
+        <v>146</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C94" s="5">
+        <v>73</v>
+      </c>
+      <c r="D94" s="5">
         <v>53</v>
       </c>
-      <c r="D94" s="5">
-        <v>35</v>
-      </c>
       <c r="E94" s="5">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F94" s="6">
-        <v>0.4375</v>
+        <v>0.67949999999999999</v>
       </c>
       <c r="G94" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H94" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I94" s="6">
-        <v>0.4889</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="J94" s="5">
-        <v>1340</v>
+        <v>146</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C95" s="5">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D95" s="5">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E95" s="5">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="F95" s="6">
-        <v>0.53410000000000002</v>
+        <v>0.42220000000000002</v>
       </c>
       <c r="G95" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H95" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" s="6">
-        <v>0.57779999999999998</v>
+        <v>0.42220000000000002</v>
       </c>
       <c r="J95" s="5">
-        <v>1428</v>
+        <v>1072</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>59</v>
@@ -3965,57 +3968,57 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C96" s="5">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D96" s="5">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E96" s="5">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="F96" s="6">
-        <v>0.72370000000000001</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="G96" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H96" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I96" s="6">
-        <v>0.88239999999999996</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="J96" s="5">
-        <v>632</v>
-      </c>
-      <c r="K96" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="K96" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C97" s="5">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D97" s="5">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E97" s="5">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="F97" s="6">
-        <v>0.50309999999999999</v>
+        <v>0.44740000000000002</v>
       </c>
       <c r="G97" s="5">
         <v>3</v>
@@ -4024,80 +4027,80 @@
         <v>3</v>
       </c>
       <c r="I97" s="6">
-        <v>0.67649999999999999</v>
+        <v>0.44740000000000002</v>
       </c>
       <c r="J97" s="5">
-        <v>632</v>
-      </c>
-      <c r="K97" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C98" s="5">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="D98" s="5">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E98" s="5">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="F98" s="6">
-        <v>0.72460000000000002</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="G98" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H98" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I98" s="6">
-        <v>0.85189999999999999</v>
+        <v>0.73170000000000002</v>
       </c>
       <c r="J98" s="5">
-        <v>221</v>
-      </c>
-      <c r="K98" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="K98" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" s="5">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D99" s="5">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E99" s="5">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="F99" s="6">
-        <v>0.60470000000000002</v>
+        <v>0.50649999999999995</v>
       </c>
       <c r="G99" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H99" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I99" s="6">
-        <v>0.60470000000000002</v>
+        <v>0.57779999999999998</v>
       </c>
       <c r="J99" s="5">
-        <v>221</v>
+        <v>423</v>
       </c>
       <c r="K99" s="5" t="s">
         <v>59</v>
@@ -4105,104 +4108,104 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C100" s="5">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="D100" s="5">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E100" s="5">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="F100" s="6">
-        <v>0.49619999999999997</v>
+        <v>0.89570000000000005</v>
       </c>
       <c r="G100" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H100" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I100" s="6">
-        <v>0.62219999999999998</v>
+        <v>1.1537999999999999</v>
       </c>
       <c r="J100" s="5">
-        <v>221</v>
-      </c>
-      <c r="K100" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C101" s="5">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D101" s="5">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E101" s="5">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F101" s="6">
-        <v>0.65910000000000002</v>
+        <v>0.7742</v>
       </c>
       <c r="G101" s="5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H101" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101" s="6">
-        <v>0.69769999999999999</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="J101" s="5">
-        <v>451</v>
-      </c>
-      <c r="K101" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K101" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" s="5">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D102" s="5">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E102" s="5">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="F102" s="6">
-        <v>0.62219999999999998</v>
+        <v>0.74029999999999996</v>
       </c>
       <c r="G102" s="5">
         <v>4</v>
       </c>
       <c r="H102" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I102" s="6">
-        <v>0.62219999999999998</v>
+        <v>0.78949999999999998</v>
       </c>
       <c r="J102" s="5">
-        <v>451</v>
+        <v>187</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>59</v>
@@ -4210,34 +4213,34 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C103" s="5">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D103" s="5">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E103" s="5">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F103" s="6">
-        <v>0.60740000000000005</v>
+        <v>0.624</v>
       </c>
       <c r="G103" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H103" s="5">
         <v>4</v>
       </c>
       <c r="I103" s="6">
-        <v>0.64439999999999997</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="J103" s="5">
-        <v>451</v>
+        <v>1108</v>
       </c>
       <c r="K103" s="5" t="s">
         <v>59</v>
@@ -4245,92 +4248,92 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C104" s="5">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D104" s="5">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E104" s="5">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F104" s="6">
-        <v>1.2829999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="G104" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H104" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I104" s="6">
-        <v>1.3462000000000001</v>
+        <v>0.4889</v>
       </c>
       <c r="J104" s="5">
-        <v>90</v>
+        <v>1340</v>
       </c>
       <c r="K104" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C105" s="5">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="D105" s="5">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="E105" s="5">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="F105" s="6">
-        <v>0.79249999999999998</v>
+        <v>0.53410000000000002</v>
       </c>
       <c r="G105" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H105" s="5">
         <v>3</v>
       </c>
       <c r="I105" s="6">
-        <v>0.97219999999999995</v>
+        <v>0.57779999999999998</v>
       </c>
       <c r="J105" s="5">
-        <v>90</v>
-      </c>
-      <c r="K105" s="5" t="s">
-        <v>60</v>
+        <v>1428</v>
+      </c>
+      <c r="K105" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C106" s="5">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D106" s="5">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E106" s="5">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="F106" s="6">
-        <v>0.8</v>
+        <v>0.72370000000000001</v>
       </c>
       <c r="G106" s="5">
         <v>4</v>
@@ -4339,10 +4342,10 @@
         <v>4</v>
       </c>
       <c r="I106" s="6">
-        <v>1.1111</v>
+        <v>0.88239999999999996</v>
       </c>
       <c r="J106" s="5">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="K106" s="4" t="s">
         <v>59</v>
@@ -4350,34 +4353,34 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C107" s="5">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D107" s="5">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E107" s="5">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="F107" s="6">
-        <v>0.7611</v>
+        <v>0.50309999999999999</v>
       </c>
       <c r="G107" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H107" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I107" s="6">
-        <v>0.90910000000000002</v>
+        <v>0.67649999999999999</v>
       </c>
       <c r="J107" s="5">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="K107" s="5" t="s">
         <v>59</v>
@@ -4385,34 +4388,34 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="5">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="D108" s="5">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="E108" s="5">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="F108" s="6">
-        <v>0.57779999999999998</v>
+        <v>0.72460000000000002</v>
       </c>
       <c r="G108" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H108" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I108" s="6">
-        <v>0.57779999999999998</v>
+        <v>0.85189999999999999</v>
       </c>
       <c r="J108" s="5">
-        <v>468</v>
+        <v>221</v>
       </c>
       <c r="K108" s="4" t="s">
         <v>59</v>
@@ -4420,7 +4423,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>11</v>
@@ -4429,25 +4432,25 @@
         <v>60</v>
       </c>
       <c r="D109" s="5">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E109" s="5">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F109" s="6">
-        <v>0.30299999999999999</v>
+        <v>0.60470000000000002</v>
       </c>
       <c r="G109" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H109" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I109" s="6">
-        <v>0.30299999999999999</v>
+        <v>0.60470000000000002</v>
       </c>
       <c r="J109" s="5">
-        <v>468</v>
+        <v>221</v>
       </c>
       <c r="K109" s="5" t="s">
         <v>59</v>
@@ -4455,7 +4458,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>12</v>
@@ -4464,25 +4467,25 @@
         <v>76</v>
       </c>
       <c r="D110" s="5">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E110" s="5">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F110" s="6">
-        <v>0.71789999999999998</v>
+        <v>0.49619999999999997</v>
       </c>
       <c r="G110" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H110" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I110" s="6">
-        <v>0.88239999999999996</v>
+        <v>0.62219999999999998</v>
       </c>
       <c r="J110" s="5">
-        <v>468</v>
+        <v>221</v>
       </c>
       <c r="K110" s="5" t="s">
         <v>59</v>
@@ -4490,22 +4493,22 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C111" s="5">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D111" s="5">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E111" s="5">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="F111" s="6">
-        <v>0.53659999999999997</v>
+        <v>0.65910000000000002</v>
       </c>
       <c r="G111" s="5">
         <v>4</v>
@@ -4514,10 +4517,10 @@
         <v>3</v>
       </c>
       <c r="I111" s="6">
-        <v>0.53659999999999997</v>
+        <v>0.69769999999999999</v>
       </c>
       <c r="J111" s="5">
-        <v>1576</v>
+        <v>451</v>
       </c>
       <c r="K111" s="4" t="s">
         <v>59</v>
@@ -4525,60 +4528,60 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C112" s="5">
         <v>50</v>
       </c>
       <c r="D112" s="5">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E112" s="5">
         <v>45</v>
       </c>
       <c r="F112" s="6">
-        <v>0.31109999999999999</v>
+        <v>0.62219999999999998</v>
       </c>
       <c r="G112" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H112" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I112" s="6">
-        <v>0.31109999999999999</v>
+        <v>0.62219999999999998</v>
       </c>
       <c r="J112" s="5">
-        <v>562</v>
-      </c>
-      <c r="K112" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="K112" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C113" s="5">
         <v>66</v>
       </c>
       <c r="D113" s="5">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="E113" s="5">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="F113" s="6">
-        <v>0.5222</v>
+        <v>0.60740000000000005</v>
       </c>
       <c r="G113" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H113" s="5">
         <v>4</v>
@@ -4587,7 +4590,7 @@
         <v>0.64439999999999997</v>
       </c>
       <c r="J113" s="5">
-        <v>562</v>
+        <v>451</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>59</v>
@@ -4595,197 +4598,197 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="C114" s="5">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D114" s="5">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="E114" s="5">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F114" s="6">
-        <v>0.33329999999999999</v>
+        <v>0.80689999999999995</v>
       </c>
       <c r="G114" s="5">
         <v>4</v>
       </c>
       <c r="H114" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I114" s="6">
-        <v>0.33329999999999999</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="J114" s="5">
-        <v>562</v>
-      </c>
-      <c r="K114" s="5" t="s">
-        <v>59</v>
+        <v>105</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B115" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="5">
+        <v>75</v>
+      </c>
+      <c r="D115" s="5">
         <v>68</v>
       </c>
-      <c r="C115" s="5">
-        <v>50</v>
-      </c>
-      <c r="D115" s="5">
-        <v>16</v>
-      </c>
       <c r="E115" s="5">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F115" s="6">
-        <v>0.35560000000000003</v>
+        <v>1.2829999999999999</v>
       </c>
       <c r="G115" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H115" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I115" s="6">
-        <v>0.35560000000000003</v>
+        <v>1.3462000000000001</v>
       </c>
       <c r="J115" s="5">
-        <v>518</v>
-      </c>
-      <c r="K115" s="4" t="s">
-        <v>59</v>
+        <v>90</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C116" s="5">
+        <v>150</v>
+      </c>
+      <c r="D116" s="5">
+        <v>84</v>
+      </c>
+      <c r="E116" s="5">
+        <v>106</v>
+      </c>
+      <c r="F116" s="6">
+        <v>0.79249999999999998</v>
+      </c>
+      <c r="G116" s="5">
+        <v>4</v>
+      </c>
+      <c r="H116" s="5">
+        <v>3</v>
+      </c>
+      <c r="I116" s="6">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="J116" s="5">
+        <v>90</v>
+      </c>
+      <c r="K116" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="D116" s="5">
-        <v>45</v>
-      </c>
-      <c r="E116" s="5">
-        <v>85</v>
-      </c>
-      <c r="F116" s="6">
-        <v>0.52939999999999998</v>
-      </c>
-      <c r="G116" s="5">
-        <v>5</v>
-      </c>
-      <c r="H116" s="5">
-        <v>3</v>
-      </c>
-      <c r="I116" s="6">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="J116" s="5">
-        <v>518</v>
-      </c>
-      <c r="K116" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C117" s="5">
         <v>66</v>
       </c>
       <c r="D117" s="5">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E117" s="5">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="F117" s="6">
-        <v>0.54069999999999996</v>
+        <v>0.8</v>
       </c>
       <c r="G117" s="5">
         <v>4</v>
       </c>
       <c r="H117" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I117" s="6">
-        <v>0.57779999999999998</v>
+        <v>1.1111</v>
       </c>
       <c r="J117" s="5">
-        <v>518</v>
-      </c>
-      <c r="K117" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C118" s="5">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="D118" s="5">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="E118" s="5">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="F118" s="6">
-        <v>0.72360000000000002</v>
+        <v>0.7611</v>
       </c>
       <c r="G118" s="5">
         <v>6</v>
       </c>
       <c r="H118" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I118" s="6">
-        <v>0.81079999999999997</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="J118" s="5">
-        <v>55</v>
-      </c>
-      <c r="K118" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="K118" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C119" s="5">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D119" s="5">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E119" s="5">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F119" s="6">
-        <v>0.3659</v>
+        <v>0.57779999999999998</v>
       </c>
       <c r="G119" s="5">
         <v>3</v>
@@ -4794,45 +4797,45 @@
         <v>3</v>
       </c>
       <c r="I119" s="6">
-        <v>0.3659</v>
+        <v>0.57779999999999998</v>
       </c>
       <c r="J119" s="5">
-        <v>55</v>
-      </c>
-      <c r="K119" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C120" s="5">
-        <v>390</v>
+        <v>60</v>
       </c>
       <c r="D120" s="5">
-        <v>193</v>
+        <v>10</v>
       </c>
       <c r="E120" s="5">
-        <v>270</v>
+        <v>33</v>
       </c>
       <c r="F120" s="6">
-        <v>0.71479999999999999</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="G120" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H120" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I120" s="6">
-        <v>0.92110000000000003</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="J120" s="5">
-        <v>55</v>
+        <v>468</v>
       </c>
       <c r="K120" s="5" t="s">
         <v>59</v>
@@ -4840,174 +4843,174 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C121" s="5">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="D121" s="5">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="E121" s="5">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="F121" s="6">
-        <v>0.75690000000000002</v>
+        <v>0.71789999999999998</v>
       </c>
       <c r="G121" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H121" s="5">
         <v>4</v>
       </c>
       <c r="I121" s="6">
-        <v>0.81079999999999997</v>
+        <v>0.88239999999999996</v>
       </c>
       <c r="J121" s="5">
-        <v>219</v>
-      </c>
-      <c r="K121" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="K121" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C122" s="5">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="D122" s="5">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E122" s="5">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="F122" s="6">
-        <v>0.67469999999999997</v>
+        <v>0.53659999999999997</v>
       </c>
       <c r="G122" s="5">
         <v>4</v>
       </c>
       <c r="H122" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I122" s="6">
-        <v>0.68179999999999996</v>
+        <v>0.53659999999999997</v>
       </c>
       <c r="J122" s="5">
-        <v>219</v>
-      </c>
-      <c r="K122" s="5" t="s">
+        <v>1576</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C123" s="5">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D123" s="5">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="E123" s="5">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="F123" s="6">
-        <v>0.65490000000000004</v>
+        <v>0.31109999999999999</v>
       </c>
       <c r="G123" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H123" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I123" s="6">
-        <v>0.75</v>
+        <v>0.31109999999999999</v>
       </c>
       <c r="J123" s="5">
-        <v>219</v>
-      </c>
-      <c r="K123" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="C124" s="5">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D124" s="5">
         <v>47</v>
       </c>
       <c r="E124" s="5">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F124" s="6">
-        <v>0.62670000000000003</v>
+        <v>0.5222</v>
       </c>
       <c r="G124" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H124" s="5">
         <v>4</v>
       </c>
       <c r="I124" s="6">
-        <v>0.63329999999999997</v>
+        <v>0.64439999999999997</v>
       </c>
       <c r="J124" s="5">
-        <v>159</v>
-      </c>
-      <c r="K124" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="K124" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C125" s="5">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c r="D125" s="5">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="E125" s="5">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="F125" s="6">
-        <v>0.85599999999999998</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="G125" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H125" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I125" s="6">
-        <v>1.4286000000000001</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="J125" s="5">
-        <v>159</v>
+        <v>562</v>
       </c>
       <c r="K125" s="5" t="s">
         <v>59</v>
@@ -5015,34 +5018,34 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C126" s="5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D126" s="5">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E126" s="5">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F126" s="6">
-        <v>0.63639999999999997</v>
+        <v>0.35560000000000003</v>
       </c>
       <c r="G126" s="5">
         <v>3</v>
       </c>
       <c r="H126" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" s="6">
-        <v>0.63639999999999997</v>
+        <v>0.35560000000000003</v>
       </c>
       <c r="J126" s="5">
-        <v>274</v>
+        <v>518</v>
       </c>
       <c r="K126" s="4" t="s">
         <v>59</v>
@@ -5050,22 +5053,22 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C127" s="5">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D127" s="5">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E127" s="5">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F127" s="6">
-        <v>0.67859999999999998</v>
+        <v>0.52939999999999998</v>
       </c>
       <c r="G127" s="5">
         <v>5</v>
@@ -5074,10 +5077,10 @@
         <v>3</v>
       </c>
       <c r="I127" s="6">
-        <v>0.76919999999999999</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="J127" s="5">
-        <v>274</v>
+        <v>518</v>
       </c>
       <c r="K127" s="5" t="s">
         <v>59</v>
@@ -5085,34 +5088,34 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C128" s="5">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D128" s="5">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="E128" s="5">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F128" s="6">
-        <v>0.72789999999999999</v>
+        <v>0.54069999999999996</v>
       </c>
       <c r="G128" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H128" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I128" s="6">
-        <v>0.9677</v>
+        <v>0.57779999999999998</v>
       </c>
       <c r="J128" s="5">
-        <v>274</v>
+        <v>518</v>
       </c>
       <c r="K128" s="5" t="s">
         <v>59</v>
@@ -5120,34 +5123,34 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C129" s="5">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="D129" s="5">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="E129" s="5">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="F129" s="6">
-        <v>0.83099999999999996</v>
+        <v>0.72360000000000002</v>
       </c>
       <c r="G129" s="5">
+        <v>6</v>
+      </c>
+      <c r="H129" s="5">
         <v>5</v>
       </c>
-      <c r="H129" s="5">
-        <v>4</v>
-      </c>
       <c r="I129" s="6">
-        <v>0.88239999999999996</v>
+        <v>0.81079999999999997</v>
       </c>
       <c r="J129" s="5">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="K129" s="4" t="s">
         <v>59</v>
@@ -5155,34 +5158,34 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C130" s="5">
-        <v>810</v>
+        <v>70</v>
       </c>
       <c r="D130" s="5">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="E130" s="5">
-        <v>294</v>
+        <v>41</v>
       </c>
       <c r="F130" s="6">
-        <v>0.78569999999999995</v>
+        <v>0.3659</v>
       </c>
       <c r="G130" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H130" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I130" s="6">
-        <v>1.2</v>
+        <v>0.3659</v>
       </c>
       <c r="J130" s="5">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="K130" s="5" t="s">
         <v>59</v>
@@ -5190,7 +5193,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>12</v>
@@ -5199,34 +5202,419 @@
         <v>390</v>
       </c>
       <c r="D131" s="5">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="E131" s="5">
-        <v>179</v>
+        <v>270</v>
       </c>
       <c r="F131" s="6">
-        <v>0.79890000000000005</v>
+        <v>0.71479999999999999</v>
       </c>
       <c r="G131" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H131" s="5">
         <v>5</v>
       </c>
       <c r="I131" s="6">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="J131" s="5">
+        <v>55</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C132" s="5">
+        <v>150</v>
+      </c>
+      <c r="D132" s="5">
+        <v>109</v>
+      </c>
+      <c r="E132" s="5">
+        <v>144</v>
+      </c>
+      <c r="F132" s="6">
+        <v>0.75690000000000002</v>
+      </c>
+      <c r="G132" s="5">
+        <v>4</v>
+      </c>
+      <c r="H132" s="5">
+        <v>4</v>
+      </c>
+      <c r="I132" s="6">
+        <v>0.81079999999999997</v>
+      </c>
+      <c r="J132" s="5">
+        <v>219</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="5">
+        <v>63</v>
+      </c>
+      <c r="D133" s="5">
+        <v>56</v>
+      </c>
+      <c r="E133" s="5">
+        <v>83</v>
+      </c>
+      <c r="F133" s="6">
+        <v>0.67469999999999997</v>
+      </c>
+      <c r="G133" s="5">
+        <v>4</v>
+      </c>
+      <c r="H133" s="5">
+        <v>4</v>
+      </c>
+      <c r="I133" s="6">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="J133" s="5">
+        <v>219</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="5">
+        <v>76</v>
+      </c>
+      <c r="D134" s="5">
+        <v>74</v>
+      </c>
+      <c r="E134" s="5">
+        <v>113</v>
+      </c>
+      <c r="F134" s="6">
+        <v>0.65490000000000004</v>
+      </c>
+      <c r="G134" s="5">
+        <v>6</v>
+      </c>
+      <c r="H134" s="5">
+        <v>5</v>
+      </c>
+      <c r="I134" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="J134" s="5">
+        <v>219</v>
+      </c>
+      <c r="K134" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C135" s="5">
+        <v>83</v>
+      </c>
+      <c r="D135" s="5">
+        <v>47</v>
+      </c>
+      <c r="E135" s="5">
+        <v>75</v>
+      </c>
+      <c r="F135" s="6">
+        <v>0.62670000000000003</v>
+      </c>
+      <c r="G135" s="5">
+        <v>6</v>
+      </c>
+      <c r="H135" s="5">
+        <v>4</v>
+      </c>
+      <c r="I135" s="6">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="J135" s="5">
+        <v>159</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="5">
+        <v>270</v>
+      </c>
+      <c r="D136" s="5">
+        <v>208</v>
+      </c>
+      <c r="E136" s="5">
+        <v>243</v>
+      </c>
+      <c r="F136" s="6">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="G136" s="5">
+        <v>10</v>
+      </c>
+      <c r="H136" s="5">
+        <v>7</v>
+      </c>
+      <c r="I136" s="6">
+        <v>1.4286000000000001</v>
+      </c>
+      <c r="J136" s="5">
+        <v>159</v>
+      </c>
+      <c r="K136" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C137" s="5">
+        <v>60</v>
+      </c>
+      <c r="D137" s="5">
+        <v>21</v>
+      </c>
+      <c r="E137" s="5">
+        <v>33</v>
+      </c>
+      <c r="F137" s="6">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="G137" s="5">
+        <v>3</v>
+      </c>
+      <c r="H137" s="5">
+        <v>3</v>
+      </c>
+      <c r="I137" s="6">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="J137" s="5">
+        <v>274</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="5">
+        <v>86</v>
+      </c>
+      <c r="D138" s="5">
+        <v>57</v>
+      </c>
+      <c r="E138" s="5">
+        <v>84</v>
+      </c>
+      <c r="F138" s="6">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="G138" s="5">
+        <v>5</v>
+      </c>
+      <c r="H138" s="5">
+        <v>3</v>
+      </c>
+      <c r="I138" s="6">
+        <v>0.76919999999999999</v>
+      </c>
+      <c r="J138" s="5">
+        <v>274</v>
+      </c>
+      <c r="K138" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="5">
+        <v>89</v>
+      </c>
+      <c r="D139" s="5">
+        <v>107</v>
+      </c>
+      <c r="E139" s="5">
+        <v>147</v>
+      </c>
+      <c r="F139" s="6">
+        <v>0.72789999999999999</v>
+      </c>
+      <c r="G139" s="5">
+        <v>6</v>
+      </c>
+      <c r="H139" s="5">
+        <v>6</v>
+      </c>
+      <c r="I139" s="6">
+        <v>0.9677</v>
+      </c>
+      <c r="J139" s="5">
+        <v>274</v>
+      </c>
+      <c r="K139" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C140" s="5">
+        <v>83</v>
+      </c>
+      <c r="D140" s="5">
+        <v>59</v>
+      </c>
+      <c r="E140" s="5">
+        <v>71</v>
+      </c>
+      <c r="F140" s="6">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="G140" s="5">
+        <v>5</v>
+      </c>
+      <c r="H140" s="5">
+        <v>4</v>
+      </c>
+      <c r="I140" s="6">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="J140" s="5">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="5">
+        <v>810</v>
+      </c>
+      <c r="D141" s="5">
+        <v>231</v>
+      </c>
+      <c r="E141" s="5">
+        <v>294</v>
+      </c>
+      <c r="F141" s="6">
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="G141" s="5">
+        <v>8</v>
+      </c>
+      <c r="H141" s="5">
+        <v>5</v>
+      </c>
+      <c r="I141" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="J141" s="5">
+        <v>11</v>
+      </c>
+      <c r="K141" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="5">
+        <v>390</v>
+      </c>
+      <c r="D142" s="5">
+        <v>143</v>
+      </c>
+      <c r="E142" s="5">
+        <v>179</v>
+      </c>
+      <c r="F142" s="6">
+        <v>0.79890000000000005</v>
+      </c>
+      <c r="G142" s="5">
+        <v>5</v>
+      </c>
+      <c r="H142" s="5">
+        <v>5</v>
+      </c>
+      <c r="I142" s="6">
         <v>1.0345</v>
       </c>
-      <c r="J131" s="5">
+      <c r="J142" s="5">
         <v>11</v>
       </c>
-      <c r="K131" s="5" t="s">
+      <c r="K142" s="5" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K131">
-    <sortCondition ref="A2:A131"/>
-    <sortCondition descending="1" ref="B2:B131"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K142">
+    <sortCondition ref="A2:A142"/>
+    <sortCondition descending="1" ref="B2:B142"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
